--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM10_재비산.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM10_재비산.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM10_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM10_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM10_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM10_재비산 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1298 +397,1417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM10_재비산 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024121610</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>44.50591199946992</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>5.785260332368356</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>20.98502077066886</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>4.728882482738695</v>
+      </c>
+      <c r="F2">
         <v>19.11050189009087</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>18.83966418410055</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>1.271110825488718</v>
       </c>
-      <c r="H2" t="n">
-        <v>110.4974700021873</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>115.226352484926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024121611</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>46.2771313626905</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>5.073228291461482</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>19.23626903977978</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>4.728882482738695</v>
+      </c>
+      <c r="F3">
         <v>14.98069004096107</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>16.24108981387978</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>1.747777385046988</v>
       </c>
-      <c r="H3" t="n">
-        <v>103.5561859338196</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>108.2850684165583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024121612</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>48.78904245962152</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>5.429244311914917</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>18.94481041796494</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>4.433327327567525</v>
+      </c>
+      <c r="F4">
         <v>16.9241309111398</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>14.61698083249181</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>1.588888531860898</v>
       </c>
-      <c r="H4" t="n">
-        <v>106.2930974649939</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>110.7264247925614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024121613</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>48.53141055224395</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>4.005180230101169</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>17.48751730889072</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>4.433327327567525</v>
+      </c>
+      <c r="F5">
         <v>17.08608431698803</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>11.04394107343825</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>1.271110825488718</v>
       </c>
-      <c r="H5" t="n">
-        <v>99.42524430715083</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>103.8585716347184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024121614</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>50.1738139617758</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>4.806216276121401</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>20.693562148854</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>5.615547948252198</v>
+      </c>
+      <c r="F6">
         <v>14.65678322926461</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>11.69358466599345</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>0.9533331191165386</v>
       </c>
-      <c r="H6" t="n">
-        <v>102.9772934011258</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>108.592841349378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024121615</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>51.20434159128589</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>4.183188240327887</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>21.56793801429854</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>5.319992793081033</v>
+      </c>
+      <c r="F7">
         <v>12.87529576493411</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>9.419832092050274</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>2.065555091419167</v>
       </c>
-      <c r="H7" t="n">
-        <v>101.3161507943159</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>106.6361435873969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024121616</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>56.09934783145919</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>4.628208265894683</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>20.40210352703916</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>10.04887527581972</v>
+      </c>
+      <c r="F8">
         <v>14.0089696058717</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>6.171614129274317</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>1.747777385046988</v>
       </c>
-      <c r="H8" t="n">
-        <v>103.058020744586</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>113.1068960204058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024121617</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>61.89606574745383</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>3.916176224987809</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>19.52772766159463</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>18.32441962061244</v>
+      </c>
+      <c r="F9">
         <v>13.11822587370645</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>6.171614129274317</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>1.112221972302628</v>
       </c>
-      <c r="H9" t="n">
-        <v>105.7420316093197</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>124.0664512299321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024121618</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>59.48076661578937</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>4.450200255667966</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>24.19106561063216</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>22.16663663783763</v>
+      </c>
+      <c r="F10">
         <v>7.044973154397907</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>4.547505147886341</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.4766665595582693</v>
       </c>
-      <c r="H10" t="n">
-        <v>100.191177343932</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>122.3578139817696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024121619</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>43.02452853204904</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>3.649164209647731</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>17.19605868707587</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>17.7333093102701</v>
+      </c>
+      <c r="F11">
         <v>3.643951631585124</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>3.897861555331148</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>0.4766665595582693</v>
       </c>
-      <c r="H11" t="n">
-        <v>71.88823117524717</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>89.62154048551727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024121620</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>35.97185506758893</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>4.005180230101169</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>15.15584833437195</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>13.89109229304492</v>
+      </c>
+      <c r="F12">
         <v>3.239068116964556</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>4.872326944163936</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.6355554127443591</v>
       </c>
-      <c r="H12" t="n">
-        <v>63.8798341059349</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>77.77092639897981</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024121621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>29.6920773252614</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>2.670120153400779</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>12.2412621162235</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>10.3444304309909</v>
+      </c>
+      <c r="F13">
         <v>1.619534058482278</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>2.27375257394317</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>0.3177777063721796</v>
       </c>
-      <c r="H13" t="n">
-        <v>48.81452393368331</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>59.15895436467421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024121622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>22.73601582606784</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>2.403108138060701</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>6.412089679926596</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>4.728882482738695</v>
+      </c>
+      <c r="F14">
         <v>2.024417573102847</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>1.624108981387979</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>0.4766665595582693</v>
       </c>
-      <c r="H14" t="n">
-        <v>35.67640675810423</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>40.40528924084293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024121623</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>13.36465519520985</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1.068048061360312</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>3.497503461778142</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>2.955551551711684</v>
+      </c>
+      <c r="F15">
         <v>1.619534058482278</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>2.27375257394317</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>0.1588888531860898</v>
       </c>
-      <c r="H15" t="n">
-        <v>21.98238220395984</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>24.93793375567152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024121700</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>10.75613213301226</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>2.047092117607264</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>4.080420705407833</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>0.8866654655135051</v>
+      </c>
+      <c r="F16">
         <v>0.8907437321652527</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>2.598574370220766</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>0.1588888531860898</v>
       </c>
-      <c r="H16" t="n">
-        <v>20.53185191159946</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>21.41851737711297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024121701</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>6.827245545504789</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>2.759124158514138</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>2.040210352703916</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>0.2955551551711684</v>
+      </c>
+      <c r="F17">
         <v>1.862464167254619</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>2.598574370220766</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>16.08761859419823</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>16.3831737493694</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024121702</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>4.669578321217902</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>2.403108138060701</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>2.040210352703916</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>0.2955551551711684</v>
+      </c>
+      <c r="F18">
         <v>0.9717204350893665</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>3.573039759053552</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>13.65765700612544</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>13.95321216129661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024121703</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>4.830598263328861</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>2.047092117607264</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>2.914586218148453</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>1.477775775855842</v>
+      </c>
+      <c r="F19">
         <v>1.700510761406392</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>2.923396166498362</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>14.41618352698933</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>15.89395930284517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024121704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>8.276425024503448</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>1.24605607158703</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>4.371879327222679</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>0.8866654655135051</v>
+      </c>
+      <c r="F20">
         <v>3.401021522812784</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>3.573039759053552</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>20.86842170517949</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>21.755087170693</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024121705</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>19.19357709962668</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>1.068048061360312</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>10.20105176351958</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>11.2310958965044</v>
+      </c>
+      <c r="F21">
         <v>5.830322610536201</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>9.419832092050274</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.1588888531860898</v>
       </c>
-      <c r="H21" t="n">
-        <v>45.87172048027914</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>57.10281637678353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024121706</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>34.16843171594613</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>3.560160204534373</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>18.36189317433524</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>28.9644052067745</v>
+      </c>
+      <c r="F22">
         <v>9.717204350893667</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>14.61698083249181</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.7944442659304488</v>
       </c>
-      <c r="H22" t="n">
-        <v>81.21911454413168</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>110.1835197509062</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024121707</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>47.30765899220062</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>1.780080102267187</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>12.2412621162235</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>24.23552272403581</v>
+      </c>
+      <c r="F23">
         <v>11.49869181522417</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>13.31769364738143</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>1.588888531860898</v>
       </c>
-      <c r="H23" t="n">
-        <v>87.73427520515781</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>111.9697979291936</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024121708</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>55.35865609774874</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>2.136096122720624</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>15.15584833437195</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>10.63998558616207</v>
+      </c>
+      <c r="F24">
         <v>12.2274821415412</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>18.51484238782296</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>1.271110825488718</v>
       </c>
-      <c r="H24" t="n">
-        <v>104.6640359096942</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>115.3040214958563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024121709</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>44.69913593000307</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>4.361196250554606</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>19.81918628340948</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>7.979989189621548</v>
+      </c>
+      <c r="F25">
         <v>15.62850366435398</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>21.76306035059891</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>0.6355554127443591</v>
       </c>
-      <c r="H25" t="n">
-        <v>106.9066378916644</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>114.8866270812859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024121710</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>45.76186754793542</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>4.806216276121401</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>18.94481041796494</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>4.728882482738695</v>
+      </c>
+      <c r="F26">
         <v>20.4061291368767</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>22.4127039431541</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>1.588888531860898</v>
       </c>
-      <c r="H26" t="n">
-        <v>113.9206158539135</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>118.6494983366522</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024121711</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>44.95676783738061</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>5.785260332368356</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>16.90460006526102</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>3.842217017225189</v>
+      </c>
+      <c r="F27">
         <v>16.9241309111398</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>20.78859496176613</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>1.429999678674808</v>
       </c>
-      <c r="H27" t="n">
-        <v>106.7893537865907</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>110.6315708038159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024121712</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>45.89068350162419</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>4.450200255667966</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>14.86438971255711</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>5.615547948252198</v>
+      </c>
+      <c r="F28">
         <v>14.33287641756816</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>15.266624425047</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>2.065555091419167</v>
       </c>
-      <c r="H28" t="n">
-        <v>96.87032940388359</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>102.4858773521358</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024121713</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>48.56361454066617</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>4.005180230101169</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>21.56793801429854</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>7.388878879279211</v>
+      </c>
+      <c r="F29">
         <v>16.357293990671</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>14.9418026287694</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>2.065555091419167</v>
       </c>
-      <c r="H29" t="n">
-        <v>107.5013844959254</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>114.8902633752047</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024121714</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>42.63808067098275</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>3.82717221987445</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>21.8593966361134</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>4.728882482738695</v>
+      </c>
+      <c r="F30">
         <v>14.89971333803696</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>8.770188499495079</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>1.271110825488718</v>
       </c>
-      <c r="H30" t="n">
-        <v>93.26566218999135</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>97.99454467273004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024121715</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>50.1416099733536</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>2.937132168740858</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>15.73876557800164</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>4.433327327567525</v>
+      </c>
+      <c r="F31">
         <v>14.57580652634049</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>13.64251544365902</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>2.383332797791347</v>
       </c>
-      <c r="H31" t="n">
-        <v>99.41916248788696</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>103.8524898154545</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024121716</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>57.29089540308028</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>3.916176224987809</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>18.94481041796494</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>9.75332012064856</v>
+      </c>
+      <c r="F32">
         <v>14.08994630879581</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>11.04394107343825</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>1.429999678674808</v>
       </c>
-      <c r="H32" t="n">
-        <v>106.7157691069419</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>116.4690892275905</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024121717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>62.82998141169737</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>2.937132168740858</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>14.28147246892742</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>16.55108868958543</v>
+      </c>
+      <c r="F33">
         <v>11.49869181522417</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>5.521970536719127</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>1.112221972302628</v>
       </c>
-      <c r="H33" t="n">
-        <v>98.18147037361157</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>114.732559063197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024121718</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>65.56732042758375</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>2.047092117607264</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>16.32168282163133</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>21.27997117232413</v>
+      </c>
+      <c r="F34">
         <v>7.773763480714932</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>2.923396166498362</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.7944442659304488</v>
       </c>
-      <c r="H34" t="n">
-        <v>95.42769927996609</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>116.7076704522902</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024121719</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>45.98729546689074</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>1.869084107380546</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>13.40709660348288</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>15.9599783792431</v>
+      </c>
+      <c r="F35">
         <v>4.534695363750377</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>4.872326944163936</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.7944442659304488</v>
       </c>
-      <c r="H35" t="n">
-        <v>71.46494275159891</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>87.42492113084201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024121720</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>40.70584136565122</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>1.24605607158703</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>9.035217276260202</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>17.14219899992776</v>
+      </c>
+      <c r="F36">
         <v>3.562974928661011</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>4.547505147886341</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>1.112221972302628</v>
       </c>
-      <c r="H36" t="n">
-        <v>60.20981676234842</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>77.35201576227618</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024121721</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>32.55823229483652</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>1.24605607158703</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>9.909593141704738</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>9.45776496547739</v>
+      </c>
+      <c r="F37">
         <v>3.158091414040441</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>2.923396166498362</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>0.6355554127443591</v>
       </c>
-      <c r="H37" t="n">
-        <v>50.43092450141145</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>59.88868946688884</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024121722</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>25.05470299246569</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>2.136096122720624</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>5.829172436296905</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>4.728882482738695</v>
+      </c>
+      <c r="F38">
         <v>2.348324384799302</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>2.923396166498362</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>0.3177777063721796</v>
       </c>
-      <c r="H38" t="n">
-        <v>38.60946980915306</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>43.33835229189176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024121723</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>15.65113837318552</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1.691076097153827</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>4.080420705407833</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>2.068886086198179</v>
+      </c>
+      <c r="F39">
         <v>1.214650543861708</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>1.948930777665574</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.1588888531860898</v>
       </c>
-      <c r="H39" t="n">
-        <v>24.74510535046054</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>26.81399143665872</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024121800</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>11.883271727789</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>3.649164209647731</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>3.206044839963298</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>1.182220620684674</v>
+      </c>
+      <c r="F40">
         <v>1.133673840937594</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>3.573039759053552</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>0.3177777063721796</v>
       </c>
-      <c r="H40" t="n">
-        <v>23.76297208376335</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>24.94519270444803</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024121801</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>8.501852943458795</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>2.759124158514138</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>2.040210352703916</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>0.2955551551711684</v>
+      </c>
+      <c r="F41">
         <v>2.024417573102847</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>3.573039759053552</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41">
         <v>0.1588888531860898</v>
       </c>
-      <c r="H41" t="n">
-        <v>19.05753364001934</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>19.35308879519051</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024121802</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>6.279777742327521</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>1.602072092040468</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>3.206044839963298</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>0.5911103103423369</v>
+      </c>
+      <c r="F42">
         <v>1.05269713801348</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>3.248217962775958</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>15.38880977512072</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>15.97992008546306</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024121803</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>4.927210228595441</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>1.424064081813749</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>3.206044839963298</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>0.5911103103423369</v>
+      </c>
+      <c r="F43">
         <v>1.295627246785822</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>4.547505147886341</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43">
         <v>0.1588888531860898</v>
       </c>
-      <c r="H43" t="n">
-        <v>15.55934039823074</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>16.15045070857308</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024121804</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>8.115405082392488</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>1.157052066473671</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>3.497503461778142</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>0.8866654655135051</v>
+      </c>
+      <c r="F44">
         <v>3.562974928661011</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>4.547505147886341</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>20.88044068719165</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>21.76710615270516</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024121805</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>19.29018906489326</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.9790440562469523</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>5.537713814482057</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>9.45776496547739</v>
+      </c>
+      <c r="F45">
         <v>7.773763480714932</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>9.744653888327871</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.3177777063721796</v>
       </c>
-      <c r="H45" t="n">
-        <v>43.64314201103725</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>53.10090697651463</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024121806</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>35.2633673223007</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.9790440562469523</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>11.94980349440866</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>28.9644052067745</v>
+      </c>
+      <c r="F46">
         <v>9.879157756741892</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>19.16448598037814</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.6355554127443591</v>
       </c>
-      <c r="H46" t="n">
-        <v>77.87141402282069</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>106.8358192295952</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024121807</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>48.14496269117764</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>1.513068086927108</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>15.15584833437195</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>23.05330210335114</v>
+      </c>
+      <c r="F47">
         <v>10.28404127136246</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>15.59144622132459</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>1.112221972302628</v>
       </c>
-      <c r="H47" t="n">
-        <v>91.80158857746638</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>114.8548906808175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024121808</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>53.13658089661747</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>2.225100127833983</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>17.48751730889072</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>11.82220620684673</v>
+      </c>
+      <c r="F48">
         <v>12.71334235908588</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>16.24108981387978</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>1.429999678674808</v>
       </c>
-      <c r="H48" t="n">
-        <v>103.2336301849826</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>115.0558363918294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024121809</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>44.69913593000307</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>4.361196250554606</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>19.81918628340948</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>7.979989189621548</v>
+      </c>
+      <c r="F49">
         <v>15.62850366435398</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>21.76306035059891</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.6355554127443591</v>
       </c>
-      <c r="H49" t="n">
-        <v>106.9066378916644</v>
+      <c r="I49">
+        <v>114.8866270812859</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM10_재비산.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>44.50591199946992</v>
+        <v>64.51422200270986</v>
       </c>
       <c r="C2">
-        <v>5.785260332368356</v>
+        <v>8.386112151354824</v>
       </c>
       <c r="D2">
-        <v>20.98502077066886</v>
+        <v>30.41915619539564</v>
       </c>
       <c r="E2">
-        <v>4.728882482738695</v>
+        <v>6.854823564109048</v>
       </c>
       <c r="F2">
-        <v>19.11050189009087</v>
+        <v>27.70191882676652</v>
       </c>
       <c r="G2">
-        <v>18.83966418410055</v>
+        <v>27.30932190860489</v>
       </c>
       <c r="H2">
-        <v>1.271110825488718</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="I2">
-        <v>115.226352484926</v>
+        <v>167.0281126890188</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>46.2771313626905</v>
+        <v>67.08171998400439</v>
       </c>
       <c r="C3">
-        <v>5.073228291461482</v>
+        <v>7.353975271188077</v>
       </c>
       <c r="D3">
-        <v>19.23626903977978</v>
+        <v>27.88422651244601</v>
       </c>
       <c r="E3">
-        <v>4.728882482738695</v>
+        <v>6.854823564109048</v>
       </c>
       <c r="F3">
-        <v>14.98069004096107</v>
+        <v>21.71548721589748</v>
       </c>
       <c r="G3">
-        <v>16.24108981387978</v>
+        <v>23.54251888672835</v>
       </c>
       <c r="H3">
-        <v>1.747777385046988</v>
+        <v>2.533517305107242</v>
       </c>
       <c r="I3">
-        <v>108.2850684165583</v>
+        <v>156.9662687394806</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>48.78904245962152</v>
+        <v>70.72289893929482</v>
       </c>
       <c r="C4">
-        <v>5.429244311914917</v>
+        <v>7.870043711271451</v>
       </c>
       <c r="D4">
-        <v>18.94481041796494</v>
+        <v>27.4617382319544</v>
       </c>
       <c r="E4">
-        <v>4.433327327567525</v>
+        <v>6.42639709135223</v>
       </c>
       <c r="F4">
-        <v>16.9241309111398</v>
+        <v>24.53263150336526</v>
       </c>
       <c r="G4">
-        <v>14.61698083249181</v>
+        <v>21.18826699805552</v>
       </c>
       <c r="H4">
-        <v>1.588888531860898</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="I4">
-        <v>110.7264247925614</v>
+        <v>160.5051740253912</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>48.53141055224395</v>
+        <v>70.34944468747018</v>
       </c>
       <c r="C5">
-        <v>4.005180230101169</v>
+        <v>5.805769950937956</v>
       </c>
       <c r="D5">
-        <v>17.48751730889072</v>
+        <v>25.34929682949636</v>
       </c>
       <c r="E5">
-        <v>4.433327327567525</v>
+        <v>6.42639709135223</v>
       </c>
       <c r="F5">
-        <v>17.08608431698803</v>
+        <v>24.76739352732091</v>
       </c>
       <c r="G5">
-        <v>11.04394107343825</v>
+        <v>16.00891284297528</v>
       </c>
       <c r="H5">
-        <v>1.271110825488718</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="I5">
-        <v>103.8585716347184</v>
+        <v>150.5497729696309</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>50.1738139617758</v>
+        <v>72.73021554285235</v>
       </c>
       <c r="C6">
-        <v>4.806216276121401</v>
+        <v>6.966923941125547</v>
       </c>
       <c r="D6">
-        <v>20.693562148854</v>
+        <v>29.99666791490403</v>
       </c>
       <c r="E6">
-        <v>5.615547948252198</v>
+        <v>8.140102982379494</v>
       </c>
       <c r="F6">
-        <v>14.65678322926461</v>
+        <v>21.24596316798618</v>
       </c>
       <c r="G6">
-        <v>11.69358466599345</v>
+        <v>16.95061359844441</v>
       </c>
       <c r="H6">
-        <v>0.9533331191165386</v>
+        <v>1.381918530058495</v>
       </c>
       <c r="I6">
-        <v>108.592841349378</v>
+        <v>157.4124056777505</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>51.20434159128589</v>
+        <v>74.22403255015102</v>
       </c>
       <c r="C7">
-        <v>4.183188240327887</v>
+        <v>6.063804170979642</v>
       </c>
       <c r="D7">
-        <v>21.56793801429854</v>
+        <v>31.26413275637885</v>
       </c>
       <c r="E7">
-        <v>5.319992793081033</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="F7">
-        <v>12.87529576493411</v>
+        <v>18.66358090447405</v>
       </c>
       <c r="G7">
-        <v>9.419832092050274</v>
+        <v>13.65466095430244</v>
       </c>
       <c r="H7">
-        <v>2.065555091419167</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="I7">
-        <v>106.6361435873969</v>
+        <v>154.5760446610354</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>56.09934783145919</v>
+        <v>81.31966333481951</v>
       </c>
       <c r="C8">
-        <v>4.628208265894683</v>
+        <v>6.708889721083861</v>
       </c>
       <c r="D8">
-        <v>20.40210352703916</v>
+        <v>29.57417963441242</v>
       </c>
       <c r="E8">
-        <v>10.04887527581972</v>
+        <v>14.56650007373172</v>
       </c>
       <c r="F8">
-        <v>14.0089696058717</v>
+        <v>20.30691507216359</v>
       </c>
       <c r="G8">
-        <v>6.171614129274317</v>
+        <v>8.946157176956774</v>
       </c>
       <c r="H8">
-        <v>1.747777385046988</v>
+        <v>2.533517305107242</v>
       </c>
       <c r="I8">
-        <v>113.1068960204058</v>
+        <v>163.9558223182752</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>61.89606574745383</v>
+        <v>89.72238400087438</v>
       </c>
       <c r="C9">
-        <v>3.916176224987809</v>
+        <v>5.676752840917112</v>
       </c>
       <c r="D9">
-        <v>19.52772766159463</v>
+        <v>28.30671479293761</v>
       </c>
       <c r="E9">
-        <v>18.32441962061244</v>
+        <v>26.56244131092256</v>
       </c>
       <c r="F9">
-        <v>13.11822587370645</v>
+        <v>19.01572394040753</v>
       </c>
       <c r="G9">
-        <v>6.171614129274317</v>
+        <v>8.946157176956774</v>
       </c>
       <c r="H9">
-        <v>1.112221972302628</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="I9">
-        <v>124.0664512299321</v>
+        <v>179.8424123480842</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>59.48076661578937</v>
+        <v>86.2212503900182</v>
       </c>
       <c r="C10">
-        <v>4.450200255667966</v>
+        <v>6.450855501042175</v>
       </c>
       <c r="D10">
-        <v>24.19106561063216</v>
+        <v>35.06652728080331</v>
       </c>
       <c r="E10">
-        <v>22.16663663783763</v>
+        <v>32.13198545676116</v>
       </c>
       <c r="F10">
-        <v>7.044973154397907</v>
+        <v>10.21214804207071</v>
       </c>
       <c r="G10">
-        <v>4.547505147886341</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="H10">
-        <v>0.4766665595582693</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="I10">
-        <v>122.3578139817696</v>
+        <v>177.3656312240087</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>43.02452853204904</v>
+        <v>62.36686005471806</v>
       </c>
       <c r="C11">
-        <v>3.649164209647731</v>
+        <v>5.289701510854583</v>
       </c>
       <c r="D11">
-        <v>17.19605868707587</v>
+        <v>24.92680854900476</v>
       </c>
       <c r="E11">
-        <v>17.7333093102701</v>
+        <v>25.70558836540892</v>
       </c>
       <c r="F11">
-        <v>3.643951631585124</v>
+        <v>5.28214553900209</v>
       </c>
       <c r="G11">
-        <v>3.897861555331148</v>
+        <v>5.650204532814803</v>
       </c>
       <c r="H11">
-        <v>0.4766665595582693</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="I11">
-        <v>89.62154048551727</v>
+        <v>129.9122678168325</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>35.97185506758893</v>
+        <v>52.14354991101806</v>
       </c>
       <c r="C12">
-        <v>4.005180230101169</v>
+        <v>5.805769950937956</v>
       </c>
       <c r="D12">
-        <v>15.15584833437195</v>
+        <v>21.96939058556351</v>
       </c>
       <c r="E12">
-        <v>13.89109229304492</v>
+        <v>20.13604421957032</v>
       </c>
       <c r="F12">
-        <v>3.239068116964556</v>
+        <v>4.695240479112969</v>
       </c>
       <c r="G12">
-        <v>4.872326944163936</v>
+        <v>7.062755666018505</v>
       </c>
       <c r="H12">
-        <v>0.6355554127443591</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="I12">
-        <v>77.77092639897981</v>
+        <v>112.7340298322603</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>29.6920773252614</v>
+        <v>43.04060252279198</v>
       </c>
       <c r="C13">
-        <v>2.670120153400779</v>
+        <v>3.870513300625304</v>
       </c>
       <c r="D13">
-        <v>12.2412621162235</v>
+        <v>17.74450778064745</v>
       </c>
       <c r="E13">
-        <v>10.3444304309909</v>
+        <v>14.99492654648854</v>
       </c>
       <c r="F13">
-        <v>1.619534058482278</v>
+        <v>2.347620239556484</v>
       </c>
       <c r="G13">
-        <v>2.27375257394317</v>
+        <v>3.295952644141968</v>
       </c>
       <c r="H13">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I13">
-        <v>59.15895436467421</v>
+        <v>85.75476254427123</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>22.73601582606784</v>
+        <v>32.95733772352619</v>
       </c>
       <c r="C14">
-        <v>2.403108138060701</v>
+        <v>3.483461970562773</v>
       </c>
       <c r="D14">
-        <v>6.412089679926596</v>
+        <v>9.294742170815336</v>
       </c>
       <c r="E14">
-        <v>4.728882482738695</v>
+        <v>6.854823564109048</v>
       </c>
       <c r="F14">
-        <v>2.024417573102847</v>
+        <v>2.934525299445606</v>
       </c>
       <c r="G14">
-        <v>1.624108981387979</v>
+        <v>2.354251888672835</v>
       </c>
       <c r="H14">
-        <v>0.4766665595582693</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="I14">
-        <v>40.40528924084293</v>
+        <v>58.57010188216103</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>13.36465519520985</v>
+        <v>19.37293931340419</v>
       </c>
       <c r="C15">
-        <v>1.068048061360312</v>
+        <v>1.548205320250122</v>
       </c>
       <c r="D15">
-        <v>3.497503461778142</v>
+        <v>5.069859365899274</v>
       </c>
       <c r="E15">
-        <v>2.955551551711684</v>
+        <v>4.284264727568154</v>
       </c>
       <c r="F15">
-        <v>1.619534058482278</v>
+        <v>2.347620239556484</v>
       </c>
       <c r="G15">
-        <v>2.27375257394317</v>
+        <v>3.295952644141968</v>
       </c>
       <c r="H15">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I15">
-        <v>24.93793375567152</v>
+        <v>36.14916136582995</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>10.75613213301226</v>
+        <v>15.59171501367952</v>
       </c>
       <c r="C16">
-        <v>2.047092117607264</v>
+        <v>2.9673935304794</v>
       </c>
       <c r="D16">
-        <v>4.080420705407833</v>
+        <v>5.914835926882485</v>
       </c>
       <c r="E16">
-        <v>0.8866654655135051</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="F16">
-        <v>0.8907437321652527</v>
+        <v>1.291191131756066</v>
       </c>
       <c r="G16">
-        <v>2.598574370220766</v>
+        <v>3.766803021876536</v>
       </c>
       <c r="H16">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I16">
-        <v>21.41851737711297</v>
+        <v>31.0475377979542</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>6.827245545504789</v>
+        <v>9.896537673353473</v>
       </c>
       <c r="C17">
-        <v>2.759124158514138</v>
+        <v>3.999530410646148</v>
       </c>
       <c r="D17">
-        <v>2.040210352703916</v>
+        <v>2.957417963441242</v>
       </c>
       <c r="E17">
-        <v>0.2955551551711684</v>
+        <v>0.4284264727568155</v>
       </c>
       <c r="F17">
-        <v>1.862464167254619</v>
+        <v>2.699763275489957</v>
       </c>
       <c r="G17">
-        <v>2.598574370220766</v>
+        <v>3.766803021876536</v>
       </c>
       <c r="I17">
-        <v>16.3831737493694</v>
+        <v>23.74847881756417</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,25 +899,25 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>4.669578321217902</v>
+        <v>6.768858314321946</v>
       </c>
       <c r="C18">
-        <v>2.403108138060701</v>
+        <v>3.483461970562773</v>
       </c>
       <c r="D18">
-        <v>2.040210352703916</v>
+        <v>2.957417963441242</v>
       </c>
       <c r="E18">
-        <v>0.2955551551711684</v>
+        <v>0.4284264727568155</v>
       </c>
       <c r="F18">
-        <v>0.9717204350893665</v>
+        <v>1.408572143733891</v>
       </c>
       <c r="G18">
-        <v>3.573039759053552</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="I18">
-        <v>13.95321216129661</v>
+        <v>20.2260910198969</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,25 +925,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>4.830598263328861</v>
+        <v>7.002267221712358</v>
       </c>
       <c r="C19">
-        <v>2.047092117607264</v>
+        <v>2.9673935304794</v>
       </c>
       <c r="D19">
-        <v>2.914586218148453</v>
+        <v>4.224882804916061</v>
       </c>
       <c r="E19">
-        <v>1.477775775855842</v>
+        <v>2.142132363784077</v>
       </c>
       <c r="F19">
-        <v>1.700510761406392</v>
+        <v>2.465001251534308</v>
       </c>
       <c r="G19">
-        <v>2.923396166498362</v>
+        <v>4.237653399611103</v>
       </c>
       <c r="I19">
-        <v>15.89395930284517</v>
+        <v>23.03933057203731</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -951,25 +951,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>8.276425024503448</v>
+        <v>11.99721783986717</v>
       </c>
       <c r="C20">
-        <v>1.24605607158703</v>
+        <v>1.806239540291809</v>
       </c>
       <c r="D20">
-        <v>4.371879327222679</v>
+        <v>6.33732420737409</v>
       </c>
       <c r="E20">
-        <v>0.8866654655135051</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="F20">
-        <v>3.401021522812784</v>
+        <v>4.930002503068617</v>
       </c>
       <c r="G20">
-        <v>3.573039759053552</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="I20">
-        <v>21.755087170693</v>
+        <v>31.53541766395237</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>19.19357709962668</v>
+        <v>27.82234176093712</v>
       </c>
       <c r="C21">
-        <v>1.068048061360312</v>
+        <v>1.548205320250122</v>
       </c>
       <c r="D21">
-        <v>10.20105176351958</v>
+        <v>14.78708981720621</v>
       </c>
       <c r="E21">
-        <v>11.2310958965044</v>
+        <v>16.28020596475899</v>
       </c>
       <c r="F21">
-        <v>5.830322610536201</v>
+        <v>8.451432862403344</v>
       </c>
       <c r="G21">
-        <v>9.419832092050274</v>
+        <v>13.65466095430244</v>
       </c>
       <c r="H21">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I21">
-        <v>57.10281637678353</v>
+        <v>82.77425643486798</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>34.16843171594613</v>
+        <v>49.52937014824542</v>
       </c>
       <c r="C22">
-        <v>3.560160204534373</v>
+        <v>5.160684400833739</v>
       </c>
       <c r="D22">
-        <v>18.36189317433524</v>
+        <v>26.61676167097118</v>
       </c>
       <c r="E22">
-        <v>28.9644052067745</v>
+        <v>41.98579433016792</v>
       </c>
       <c r="F22">
-        <v>9.717204350893667</v>
+        <v>14.0857214373389</v>
       </c>
       <c r="G22">
-        <v>14.61698083249181</v>
+        <v>21.18826699805552</v>
       </c>
       <c r="H22">
-        <v>0.7944442659304488</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="I22">
-        <v>110.1835197509062</v>
+        <v>159.7181977606614</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>47.30765899220062</v>
+        <v>68.57553699130304</v>
       </c>
       <c r="C23">
-        <v>1.780080102267187</v>
+        <v>2.58034220041687</v>
       </c>
       <c r="D23">
-        <v>12.2412621162235</v>
+        <v>17.74450778064745</v>
       </c>
       <c r="E23">
-        <v>24.23552272403581</v>
+        <v>35.13097076605887</v>
       </c>
       <c r="F23">
-        <v>11.49869181522417</v>
+        <v>16.66810370085104</v>
       </c>
       <c r="G23">
-        <v>13.31769364738143</v>
+        <v>19.30486548711725</v>
       </c>
       <c r="H23">
-        <v>1.588888531860898</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="I23">
-        <v>111.9697979291936</v>
+        <v>162.307524476492</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>55.35865609774874</v>
+        <v>80.2459823608236</v>
       </c>
       <c r="C24">
-        <v>2.136096122720624</v>
+        <v>3.096410640500243</v>
       </c>
       <c r="D24">
-        <v>15.15584833437195</v>
+        <v>21.96939058556351</v>
       </c>
       <c r="E24">
-        <v>10.63998558616207</v>
+        <v>15.42335301924535</v>
       </c>
       <c r="F24">
-        <v>12.2274821415412</v>
+        <v>17.72453280865146</v>
       </c>
       <c r="G24">
-        <v>18.51484238782296</v>
+        <v>26.83847153087032</v>
       </c>
       <c r="H24">
-        <v>1.271110825488718</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="I24">
-        <v>115.3040214958563</v>
+        <v>167.1406989857325</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>44.69913593000307</v>
+        <v>64.79431269157838</v>
       </c>
       <c r="C25">
-        <v>4.361196250554606</v>
+        <v>6.321838391021331</v>
       </c>
       <c r="D25">
-        <v>19.81918628340948</v>
+        <v>28.72920307342921</v>
       </c>
       <c r="E25">
-        <v>7.979989189621548</v>
+        <v>11.56751476443401</v>
       </c>
       <c r="F25">
-        <v>15.62850366435398</v>
+        <v>22.65453531172007</v>
       </c>
       <c r="G25">
-        <v>21.76306035059891</v>
+        <v>31.54697530821599</v>
       </c>
       <c r="H25">
-        <v>0.6355554127443591</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="I25">
-        <v>114.8866270812859</v>
+        <v>166.535658560438</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>45.76186754793542</v>
+        <v>66.3348114803551</v>
       </c>
       <c r="C26">
-        <v>4.806216276121401</v>
+        <v>6.966923941125547</v>
       </c>
       <c r="D26">
-        <v>18.94481041796494</v>
+        <v>27.4617382319544</v>
       </c>
       <c r="E26">
-        <v>4.728882482738695</v>
+        <v>6.854823564109048</v>
       </c>
       <c r="F26">
-        <v>20.4061291368767</v>
+        <v>29.5800150184117</v>
       </c>
       <c r="G26">
-        <v>22.4127039431541</v>
+        <v>32.48867606368512</v>
       </c>
       <c r="H26">
-        <v>1.588888531860898</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="I26">
-        <v>118.6494983366522</v>
+        <v>171.9901858497384</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>44.95676783738061</v>
+        <v>65.16776694340304</v>
       </c>
       <c r="C27">
-        <v>5.785260332368356</v>
+        <v>8.386112151354824</v>
       </c>
       <c r="D27">
-        <v>16.90460006526102</v>
+        <v>24.50432026851315</v>
       </c>
       <c r="E27">
-        <v>3.842217017225189</v>
+        <v>5.5695441458386</v>
       </c>
       <c r="F27">
-        <v>16.9241309111398</v>
+        <v>24.53263150336526</v>
       </c>
       <c r="G27">
-        <v>20.78859496176613</v>
+        <v>30.13442417501229</v>
       </c>
       <c r="H27">
-        <v>1.429999678674808</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="I27">
-        <v>110.6315708038159</v>
+        <v>160.3676769825749</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>45.89068350162419</v>
+        <v>66.52153860626744</v>
       </c>
       <c r="C28">
-        <v>4.450200255667966</v>
+        <v>6.450855501042175</v>
       </c>
       <c r="D28">
-        <v>14.86438971255711</v>
+        <v>21.5469023050719</v>
       </c>
       <c r="E28">
-        <v>5.615547948252198</v>
+        <v>8.140102982379494</v>
       </c>
       <c r="F28">
-        <v>14.33287641756816</v>
+        <v>20.77643912007489</v>
       </c>
       <c r="G28">
-        <v>15.266624425047</v>
+        <v>22.12996775352465</v>
       </c>
       <c r="H28">
-        <v>2.065555091419167</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="I28">
-        <v>102.4858773521358</v>
+        <v>148.5599630834873</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>48.56361454066617</v>
+        <v>70.39612646894827</v>
       </c>
       <c r="C29">
-        <v>4.005180230101169</v>
+        <v>5.805769950937956</v>
       </c>
       <c r="D29">
-        <v>21.56793801429854</v>
+        <v>31.26413275637885</v>
       </c>
       <c r="E29">
-        <v>7.388878879279211</v>
+        <v>10.71066181892039</v>
       </c>
       <c r="F29">
-        <v>16.357293990671</v>
+        <v>23.7109644195205</v>
       </c>
       <c r="G29">
-        <v>14.9418026287694</v>
+        <v>21.65911737579007</v>
       </c>
       <c r="H29">
-        <v>2.065555091419167</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="I29">
-        <v>114.8902633752047</v>
+        <v>166.5409296056228</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>42.63808067098275</v>
+        <v>61.80667867698107</v>
       </c>
       <c r="C30">
-        <v>3.82717221987445</v>
+        <v>5.547735730896268</v>
       </c>
       <c r="D30">
-        <v>21.8593966361134</v>
+        <v>31.68662103687046</v>
       </c>
       <c r="E30">
-        <v>4.728882482738695</v>
+        <v>6.854823564109048</v>
       </c>
       <c r="F30">
-        <v>14.89971333803696</v>
+        <v>21.59810620391966</v>
       </c>
       <c r="G30">
-        <v>8.770188499495079</v>
+        <v>12.71296019883331</v>
       </c>
       <c r="H30">
-        <v>1.271110825488718</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="I30">
-        <v>97.99454467273004</v>
+        <v>142.0494834516878</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>50.1416099733536</v>
+        <v>72.68353376137429</v>
       </c>
       <c r="C31">
-        <v>2.937132168740858</v>
+        <v>4.257564630687835</v>
       </c>
       <c r="D31">
-        <v>15.73876557800164</v>
+        <v>22.81436714654673</v>
       </c>
       <c r="E31">
-        <v>4.433327327567525</v>
+        <v>6.42639709135223</v>
       </c>
       <c r="F31">
-        <v>14.57580652634049</v>
+        <v>21.12858215600836</v>
       </c>
       <c r="G31">
-        <v>13.64251544365902</v>
+        <v>19.7757158648518</v>
       </c>
       <c r="H31">
-        <v>2.383332797791347</v>
+        <v>3.45479632514624</v>
       </c>
       <c r="I31">
-        <v>103.8524898154545</v>
+        <v>150.5409569759675</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>57.29089540308028</v>
+        <v>83.04688924950857</v>
       </c>
       <c r="C32">
-        <v>3.916176224987809</v>
+        <v>5.676752840917112</v>
       </c>
       <c r="D32">
-        <v>18.94481041796494</v>
+        <v>27.4617382319544</v>
       </c>
       <c r="E32">
-        <v>9.75332012064856</v>
+        <v>14.13807360097491</v>
       </c>
       <c r="F32">
-        <v>14.08994630879581</v>
+        <v>20.42429608414142</v>
       </c>
       <c r="G32">
-        <v>11.04394107343825</v>
+        <v>16.00891284297528</v>
       </c>
       <c r="H32">
-        <v>1.429999678674808</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="I32">
-        <v>116.4690892275905</v>
+        <v>168.8295406455594</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>62.82998141169737</v>
+        <v>91.07615566373877</v>
       </c>
       <c r="C33">
-        <v>2.937132168740858</v>
+        <v>4.257564630687835</v>
       </c>
       <c r="D33">
-        <v>14.28147246892742</v>
+        <v>20.7019257440887</v>
       </c>
       <c r="E33">
-        <v>16.55108868958543</v>
+        <v>23.99188247438166</v>
       </c>
       <c r="F33">
-        <v>11.49869181522417</v>
+        <v>16.66810370085104</v>
       </c>
       <c r="G33">
-        <v>5.521970536719127</v>
+        <v>8.004456421487639</v>
       </c>
       <c r="H33">
-        <v>1.112221972302628</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="I33">
-        <v>114.732559063197</v>
+        <v>166.3123269203039</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,28 +1354,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>65.56732042758375</v>
+        <v>95.04410708937579</v>
       </c>
       <c r="C34">
-        <v>2.047092117607264</v>
+        <v>2.9673935304794</v>
       </c>
       <c r="D34">
-        <v>16.32168282163133</v>
+        <v>23.65934370752994</v>
       </c>
       <c r="E34">
-        <v>21.27997117232413</v>
+        <v>30.84670603849071</v>
       </c>
       <c r="F34">
-        <v>7.773763480714932</v>
+        <v>11.26857714987112</v>
       </c>
       <c r="G34">
-        <v>2.923396166498362</v>
+        <v>4.237653399611103</v>
       </c>
       <c r="H34">
-        <v>0.7944442659304488</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="I34">
-        <v>116.7076704522902</v>
+        <v>169.1753796904068</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1383,28 +1383,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>45.98729546689074</v>
+        <v>66.66158395070165</v>
       </c>
       <c r="C35">
-        <v>1.869084107380546</v>
+        <v>2.709359310437713</v>
       </c>
       <c r="D35">
-        <v>13.40709660348288</v>
+        <v>19.43446090261388</v>
       </c>
       <c r="E35">
-        <v>15.9599783792431</v>
+        <v>23.13502952886803</v>
       </c>
       <c r="F35">
-        <v>4.534695363750377</v>
+        <v>6.573336670758156</v>
       </c>
       <c r="G35">
-        <v>4.872326944163936</v>
+        <v>7.062755666018505</v>
       </c>
       <c r="H35">
-        <v>0.7944442659304488</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="I35">
-        <v>87.42492113084201</v>
+        <v>126.7281248044467</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1412,28 +1412,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>40.70584136565122</v>
+        <v>59.00577178829615</v>
       </c>
       <c r="C36">
-        <v>1.24605607158703</v>
+        <v>1.806239540291809</v>
       </c>
       <c r="D36">
-        <v>9.035217276260202</v>
+        <v>13.09713669523979</v>
       </c>
       <c r="E36">
-        <v>17.14219899992776</v>
+        <v>24.84873541989531</v>
       </c>
       <c r="F36">
-        <v>3.562974928661011</v>
+        <v>5.164764527024265</v>
       </c>
       <c r="G36">
-        <v>4.547505147886341</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="H36">
-        <v>1.112221972302628</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="I36">
-        <v>77.35201576227618</v>
+        <v>112.1267915440995</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1441,28 +1441,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>32.55823229483652</v>
+        <v>47.19528107434128</v>
       </c>
       <c r="C37">
-        <v>1.24605607158703</v>
+        <v>1.806239540291809</v>
       </c>
       <c r="D37">
-        <v>9.909593141704738</v>
+        <v>14.36460153671461</v>
       </c>
       <c r="E37">
-        <v>9.45776496547739</v>
+        <v>13.7096471282181</v>
       </c>
       <c r="F37">
-        <v>3.158091414040441</v>
+        <v>4.577859467135145</v>
       </c>
       <c r="G37">
-        <v>2.923396166498362</v>
+        <v>4.237653399611103</v>
       </c>
       <c r="H37">
-        <v>0.6355554127443591</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="I37">
-        <v>59.88868946688884</v>
+        <v>86.81256116635103</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1470,28 +1470,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>25.05470299246569</v>
+        <v>36.31842598994811</v>
       </c>
       <c r="C38">
-        <v>2.136096122720624</v>
+        <v>3.096410640500243</v>
       </c>
       <c r="D38">
-        <v>5.829172436296905</v>
+        <v>8.449765609832122</v>
       </c>
       <c r="E38">
-        <v>4.728882482738695</v>
+        <v>6.854823564109048</v>
       </c>
       <c r="F38">
-        <v>2.348324384799302</v>
+        <v>3.404049347356903</v>
       </c>
       <c r="G38">
-        <v>2.923396166498362</v>
+        <v>4.237653399611103</v>
       </c>
       <c r="H38">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I38">
-        <v>43.33835229189176</v>
+        <v>62.82176806137703</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1499,28 +1499,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>15.65113837318552</v>
+        <v>22.68734579834805</v>
       </c>
       <c r="C39">
-        <v>1.691076097153827</v>
+        <v>2.451325090396026</v>
       </c>
       <c r="D39">
-        <v>4.080420705407833</v>
+        <v>5.914835926882485</v>
       </c>
       <c r="E39">
-        <v>2.068886086198179</v>
+        <v>2.998985309297708</v>
       </c>
       <c r="F39">
-        <v>1.214650543861708</v>
+        <v>1.760715179667363</v>
       </c>
       <c r="G39">
-        <v>1.948930777665574</v>
+        <v>2.825102266407402</v>
       </c>
       <c r="H39">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I39">
-        <v>26.81399143665872</v>
+        <v>38.86862932600879</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1528,28 +1528,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>11.883271727789</v>
+        <v>17.22557736541239</v>
       </c>
       <c r="C40">
-        <v>3.649164209647731</v>
+        <v>5.289701510854583</v>
       </c>
       <c r="D40">
-        <v>3.206044839963298</v>
+        <v>4.647371085407668</v>
       </c>
       <c r="E40">
-        <v>1.182220620684674</v>
+        <v>1.713705891027262</v>
       </c>
       <c r="F40">
-        <v>1.133673840937594</v>
+        <v>1.643334167689539</v>
       </c>
       <c r="G40">
-        <v>3.573039759053552</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="H40">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I40">
-        <v>24.94519270444803</v>
+        <v>36.15968368549118</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1557,28 +1557,28 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>8.501852943458795</v>
+        <v>12.32399031021375</v>
       </c>
       <c r="C41">
-        <v>2.759124158514138</v>
+        <v>3.999530410646148</v>
       </c>
       <c r="D41">
-        <v>2.040210352703916</v>
+        <v>2.957417963441242</v>
       </c>
       <c r="E41">
-        <v>0.2955551551711684</v>
+        <v>0.4284264727568155</v>
       </c>
       <c r="F41">
-        <v>2.024417573102847</v>
+        <v>2.934525299445606</v>
       </c>
       <c r="G41">
-        <v>3.573039759053552</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="H41">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I41">
-        <v>19.35308879519051</v>
+        <v>28.05356436659355</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1586,25 +1586,25 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>6.279777742327521</v>
+        <v>9.10294738822607</v>
       </c>
       <c r="C42">
-        <v>1.602072092040468</v>
+        <v>2.322307980375183</v>
       </c>
       <c r="D42">
-        <v>3.206044839963298</v>
+        <v>4.647371085407668</v>
       </c>
       <c r="E42">
-        <v>0.5911103103423369</v>
+        <v>0.856852945513631</v>
       </c>
       <c r="F42">
-        <v>1.05269713801348</v>
+        <v>1.525953155711715</v>
       </c>
       <c r="G42">
-        <v>3.248217962775958</v>
+        <v>4.708503777345669</v>
       </c>
       <c r="I42">
-        <v>15.97992008546306</v>
+        <v>23.16393633257993</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1612,28 +1612,28 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>4.927210228595441</v>
+        <v>7.142312566146606</v>
       </c>
       <c r="C43">
-        <v>1.424064081813749</v>
+        <v>2.064273760333495</v>
       </c>
       <c r="D43">
-        <v>3.206044839963298</v>
+        <v>4.647371085407668</v>
       </c>
       <c r="E43">
-        <v>0.5911103103423369</v>
+        <v>0.856852945513631</v>
       </c>
       <c r="F43">
-        <v>1.295627246785822</v>
+        <v>1.878096191645188</v>
       </c>
       <c r="G43">
-        <v>4.547505147886341</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="H43">
-        <v>0.1588888531860898</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I43">
-        <v>16.15045070857308</v>
+        <v>23.41113159234027</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>8.115405082392488</v>
+        <v>11.76380893247677</v>
       </c>
       <c r="C44">
-        <v>1.157052066473671</v>
+        <v>1.677222430270965</v>
       </c>
       <c r="D44">
-        <v>3.497503461778142</v>
+        <v>5.069859365899274</v>
       </c>
       <c r="E44">
-        <v>0.8866654655135051</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="F44">
-        <v>3.562974928661011</v>
+        <v>5.164764527024265</v>
       </c>
       <c r="G44">
-        <v>4.547505147886341</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="I44">
-        <v>21.76710615270516</v>
+        <v>31.55283996222565</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>19.29018906489326</v>
+        <v>27.96238710537135</v>
       </c>
       <c r="C45">
-        <v>0.9790440562469523</v>
+        <v>1.419188210229278</v>
       </c>
       <c r="D45">
-        <v>5.537713814482057</v>
+        <v>8.027277329340514</v>
       </c>
       <c r="E45">
-        <v>9.45776496547739</v>
+        <v>13.7096471282181</v>
       </c>
       <c r="F45">
-        <v>7.773763480714932</v>
+        <v>11.26857714987112</v>
       </c>
       <c r="G45">
-        <v>9.744653888327871</v>
+        <v>14.12551133203701</v>
       </c>
       <c r="H45">
-        <v>0.3177777063721796</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I45">
-        <v>53.10090697651463</v>
+        <v>76.97322776508688</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>35.2633673223007</v>
+        <v>51.11655071850021</v>
       </c>
       <c r="C46">
-        <v>0.9790440562469523</v>
+        <v>1.419188210229278</v>
       </c>
       <c r="D46">
-        <v>11.94980349440866</v>
+        <v>17.32201950015585</v>
       </c>
       <c r="E46">
-        <v>28.9644052067745</v>
+        <v>41.98579433016792</v>
       </c>
       <c r="F46">
-        <v>9.879157756741892</v>
+        <v>14.32048346129455</v>
       </c>
       <c r="G46">
-        <v>19.16448598037814</v>
+        <v>27.78017228633945</v>
       </c>
       <c r="H46">
-        <v>0.6355554127443591</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="I46">
-        <v>106.8358192295952</v>
+        <v>154.8654875267263</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>48.14496269117764</v>
+        <v>69.78926330973319</v>
       </c>
       <c r="C47">
-        <v>1.513068086927108</v>
+        <v>2.193290870354339</v>
       </c>
       <c r="D47">
-        <v>15.15584833437195</v>
+        <v>21.96939058556351</v>
       </c>
       <c r="E47">
-        <v>23.05330210335114</v>
+        <v>33.41726487503161</v>
       </c>
       <c r="F47">
-        <v>10.28404127136246</v>
+        <v>14.90738852118368</v>
       </c>
       <c r="G47">
-        <v>15.59144622132459</v>
+        <v>22.60081813125921</v>
       </c>
       <c r="H47">
-        <v>1.112221972302628</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="I47">
-        <v>114.8548906808175</v>
+        <v>166.4896545781938</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>53.13658089661747</v>
+        <v>77.02493943883596</v>
       </c>
       <c r="C48">
-        <v>2.225100127833983</v>
+        <v>3.225427750521087</v>
       </c>
       <c r="D48">
-        <v>17.48751730889072</v>
+        <v>25.34929682949636</v>
       </c>
       <c r="E48">
-        <v>11.82220620684673</v>
+        <v>17.13705891027262</v>
       </c>
       <c r="F48">
-        <v>12.71334235908588</v>
+        <v>18.4288188805184</v>
       </c>
       <c r="G48">
-        <v>16.24108981387978</v>
+        <v>23.54251888672835</v>
       </c>
       <c r="H48">
-        <v>1.429999678674808</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="I48">
-        <v>115.0558363918294</v>
+        <v>166.7809384914605</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>44.69913593000307</v>
+        <v>64.79431269157838</v>
       </c>
       <c r="C49">
-        <v>4.361196250554606</v>
+        <v>6.321838391021331</v>
       </c>
       <c r="D49">
-        <v>19.81918628340948</v>
+        <v>28.72920307342921</v>
       </c>
       <c r="E49">
-        <v>7.979989189621548</v>
+        <v>11.56751476443401</v>
       </c>
       <c r="F49">
-        <v>15.62850366435398</v>
+        <v>22.65453531172007</v>
       </c>
       <c r="G49">
-        <v>21.76306035059891</v>
+        <v>31.54697530821599</v>
       </c>
       <c r="H49">
-        <v>0.6355554127443591</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="I49">
-        <v>114.8866270812859</v>
+        <v>166.535658560438</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM10_재비산.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>64.51422200270986</v>
+        <v>43.84799851773864</v>
       </c>
       <c r="C2">
-        <v>8.386112151354824</v>
+        <v>5.699739092672475</v>
       </c>
       <c r="D2">
-        <v>30.41915619539564</v>
+        <v>20.67480742014592</v>
       </c>
       <c r="E2">
-        <v>6.854823564109048</v>
+        <v>4.658977263428644</v>
       </c>
       <c r="F2">
-        <v>27.70191882676652</v>
+        <v>18.82799881867214</v>
       </c>
       <c r="G2">
-        <v>27.30932190860489</v>
+        <v>18.5611648005095</v>
       </c>
       <c r="H2">
-        <v>1.842558040077994</v>
+        <v>1.252320491546711</v>
       </c>
       <c r="I2">
-        <v>167.0281126890188</v>
+        <v>113.523006404714</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>67.08171998400439</v>
+        <v>45.59303463819853</v>
       </c>
       <c r="C3">
-        <v>7.353975271188077</v>
+        <v>4.998232742805094</v>
       </c>
       <c r="D3">
-        <v>27.88422651244601</v>
+        <v>18.95190680180043</v>
       </c>
       <c r="E3">
-        <v>6.854823564109048</v>
+        <v>4.658977263428644</v>
       </c>
       <c r="F3">
-        <v>21.71548721589748</v>
+        <v>14.75923636209469</v>
       </c>
       <c r="G3">
-        <v>23.54251888672835</v>
+        <v>16.00100413837026</v>
       </c>
       <c r="H3">
-        <v>2.533517305107242</v>
+        <v>1.721940675876728</v>
       </c>
       <c r="I3">
-        <v>156.9662687394806</v>
+        <v>106.6843326225744</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>70.72289893929482</v>
+        <v>48.06781313630535</v>
       </c>
       <c r="C4">
-        <v>7.870043711271451</v>
+        <v>5.348985917738784</v>
       </c>
       <c r="D4">
-        <v>27.4617382319544</v>
+        <v>18.66475669874285</v>
       </c>
       <c r="E4">
-        <v>6.42639709135223</v>
+        <v>4.367791184464354</v>
       </c>
       <c r="F4">
-        <v>24.53263150336526</v>
+        <v>16.67394810636643</v>
       </c>
       <c r="G4">
-        <v>21.18826699805552</v>
+        <v>14.40090372453323</v>
       </c>
       <c r="H4">
-        <v>2.303197550097493</v>
+        <v>1.565400614433389</v>
       </c>
       <c r="I4">
-        <v>160.5051740253912</v>
+        <v>109.0895993825844</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>70.34944468747018</v>
+        <v>47.8139897006021</v>
       </c>
       <c r="C5">
-        <v>5.805769950937956</v>
+        <v>3.945973218004022</v>
       </c>
       <c r="D5">
-        <v>25.34929682949636</v>
+        <v>17.22900618345494</v>
       </c>
       <c r="E5">
-        <v>6.42639709135223</v>
+        <v>4.367791184464354</v>
       </c>
       <c r="F5">
-        <v>24.76739352732091</v>
+        <v>16.83350741838908</v>
       </c>
       <c r="G5">
-        <v>16.00891284297528</v>
+        <v>10.88068281409177</v>
       </c>
       <c r="H5">
-        <v>1.842558040077994</v>
+        <v>1.252320491546711</v>
       </c>
       <c r="I5">
-        <v>150.5497729696309</v>
+        <v>102.323271010553</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>72.73021554285235</v>
+        <v>49.43211410321038</v>
       </c>
       <c r="C6">
-        <v>6.966923941125547</v>
+        <v>4.735167861604825</v>
       </c>
       <c r="D6">
-        <v>29.99666791490403</v>
+        <v>20.38765731708834</v>
       </c>
       <c r="E6">
-        <v>8.140102982379494</v>
+        <v>5.532535500321516</v>
       </c>
       <c r="F6">
-        <v>21.24596316798618</v>
+        <v>14.4401177380494</v>
       </c>
       <c r="G6">
-        <v>16.95061359844441</v>
+        <v>11.52072297962659</v>
       </c>
       <c r="H6">
-        <v>1.381918530058495</v>
+        <v>0.9392403686600335</v>
       </c>
       <c r="I6">
-        <v>157.4124056777505</v>
+        <v>106.9875558685611</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>74.22403255015102</v>
+        <v>50.44740784602347</v>
       </c>
       <c r="C7">
-        <v>6.063804170979642</v>
+        <v>4.121349805470867</v>
       </c>
       <c r="D7">
-        <v>31.26413275637885</v>
+        <v>21.24910762626109</v>
       </c>
       <c r="E7">
-        <v>7.711676509622677</v>
+        <v>5.241349421357223</v>
       </c>
       <c r="F7">
-        <v>18.66358090447405</v>
+        <v>12.6849653058003</v>
       </c>
       <c r="G7">
-        <v>13.65466095430244</v>
+        <v>9.280582400254749</v>
       </c>
       <c r="H7">
-        <v>2.994156815126741</v>
+        <v>2.035020798763405</v>
       </c>
       <c r="I7">
-        <v>154.5760446610354</v>
+        <v>105.0597832039311</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>81.31966333481951</v>
+        <v>55.27005312438544</v>
       </c>
       <c r="C8">
-        <v>6.708889721083861</v>
+        <v>4.55979127413798</v>
       </c>
       <c r="D8">
-        <v>29.57417963441242</v>
+        <v>20.10050721403076</v>
       </c>
       <c r="E8">
-        <v>14.56650007373172</v>
+        <v>9.900326684785869</v>
       </c>
       <c r="F8">
-        <v>20.30691507216359</v>
+        <v>13.80188048995882</v>
       </c>
       <c r="G8">
-        <v>8.946157176956774</v>
+        <v>6.080381572580698</v>
       </c>
       <c r="H8">
-        <v>2.533517305107242</v>
+        <v>1.721940675876728</v>
       </c>
       <c r="I8">
-        <v>163.9558223182752</v>
+        <v>111.4348810357563</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>89.72238400087438</v>
+        <v>60.98108042770886</v>
       </c>
       <c r="C9">
-        <v>5.676752840917112</v>
+        <v>3.858284924270599</v>
       </c>
       <c r="D9">
-        <v>28.30671479293761</v>
+        <v>19.23905690485802</v>
       </c>
       <c r="E9">
-        <v>26.56244131092256</v>
+        <v>18.05353689578599</v>
       </c>
       <c r="F9">
-        <v>19.01572394040753</v>
+        <v>12.92430427383427</v>
       </c>
       <c r="G9">
-        <v>8.946157176956774</v>
+        <v>6.080381572580698</v>
       </c>
       <c r="H9">
-        <v>1.612238285068245</v>
+        <v>1.095780430103372</v>
       </c>
       <c r="I9">
-        <v>179.8424123480842</v>
+        <v>122.2324254291418</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>86.2212503900182</v>
+        <v>58.60148571799076</v>
       </c>
       <c r="C10">
-        <v>6.450855501042175</v>
+        <v>4.384414686671135</v>
       </c>
       <c r="D10">
-        <v>35.06652728080331</v>
+        <v>23.83345855377934</v>
       </c>
       <c r="E10">
-        <v>32.13198545676116</v>
+        <v>21.83895592232177</v>
       </c>
       <c r="F10">
-        <v>10.21214804207071</v>
+        <v>6.94083007298507</v>
       </c>
       <c r="G10">
-        <v>6.591905288283937</v>
+        <v>4.48028115874367</v>
       </c>
       <c r="H10">
-        <v>0.6909592650292476</v>
+        <v>0.4696201843300167</v>
       </c>
       <c r="I10">
-        <v>177.3656312240087</v>
+        <v>120.5490462968217</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>62.36686005471806</v>
+        <v>42.38851376244484</v>
       </c>
       <c r="C11">
-        <v>5.289701510854583</v>
+        <v>3.595220043070332</v>
       </c>
       <c r="D11">
-        <v>24.92680854900476</v>
+        <v>16.94185608039735</v>
       </c>
       <c r="E11">
-        <v>25.70558836540892</v>
+        <v>17.47116473785742</v>
       </c>
       <c r="F11">
-        <v>5.28214553900209</v>
+        <v>3.590084520509519</v>
       </c>
       <c r="G11">
-        <v>5.650204532814803</v>
+        <v>3.840240993208862</v>
       </c>
       <c r="H11">
-        <v>0.6909592650292476</v>
+        <v>0.4696201843300167</v>
       </c>
       <c r="I11">
-        <v>129.9122678168325</v>
+        <v>88.29670032181835</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>52.14354991101806</v>
+        <v>35.44009721006807</v>
       </c>
       <c r="C12">
-        <v>5.805769950937956</v>
+        <v>3.945973218004022</v>
       </c>
       <c r="D12">
-        <v>21.96939058556351</v>
+        <v>14.93180535899428</v>
       </c>
       <c r="E12">
-        <v>20.13604421957032</v>
+        <v>13.68574571132164</v>
       </c>
       <c r="F12">
-        <v>4.695240479112969</v>
+        <v>3.191186240452906</v>
       </c>
       <c r="G12">
-        <v>7.062755666018505</v>
+        <v>4.800301241511079</v>
       </c>
       <c r="H12">
-        <v>0.921279020038997</v>
+        <v>0.6261602457733555</v>
       </c>
       <c r="I12">
-        <v>112.7340298322603</v>
+        <v>76.62126922612535</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>43.04060252279198</v>
+        <v>29.25315096480103</v>
       </c>
       <c r="C13">
-        <v>3.870513300625304</v>
+        <v>2.630648812002681</v>
       </c>
       <c r="D13">
-        <v>17.74450778064745</v>
+        <v>12.06030432841846</v>
       </c>
       <c r="E13">
-        <v>14.99492654648854</v>
+        <v>10.19151276375016</v>
       </c>
       <c r="F13">
-        <v>2.347620239556484</v>
+        <v>1.595593120226453</v>
       </c>
       <c r="G13">
-        <v>3.295952644141968</v>
+        <v>2.240140579371835</v>
       </c>
       <c r="H13">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="I13">
-        <v>85.75476254427123</v>
+        <v>58.28443069145729</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>32.95733772352619</v>
+        <v>22.39991820081292</v>
       </c>
       <c r="C14">
-        <v>3.483461970562773</v>
+        <v>2.367583930802413</v>
       </c>
       <c r="D14">
-        <v>9.294742170815336</v>
+        <v>6.317302267266809</v>
       </c>
       <c r="E14">
-        <v>6.854823564109048</v>
+        <v>4.658977263428644</v>
       </c>
       <c r="F14">
-        <v>2.934525299445606</v>
+        <v>1.994491400283066</v>
       </c>
       <c r="G14">
-        <v>2.354251888672835</v>
+        <v>1.600100413837026</v>
       </c>
       <c r="H14">
-        <v>0.6909592650292476</v>
+        <v>0.4696201843300167</v>
       </c>
       <c r="I14">
-        <v>58.57010188216103</v>
+        <v>39.8079936607609</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>19.37293931340419</v>
+        <v>13.16709072710675</v>
       </c>
       <c r="C15">
-        <v>1.548205320250122</v>
+        <v>1.052259524801072</v>
       </c>
       <c r="D15">
-        <v>5.069859365899274</v>
+        <v>3.445801236690987</v>
       </c>
       <c r="E15">
-        <v>4.284264727568154</v>
+        <v>2.911860789642902</v>
       </c>
       <c r="F15">
-        <v>2.347620239556484</v>
+        <v>1.595593120226453</v>
       </c>
       <c r="G15">
-        <v>3.295952644141968</v>
+        <v>2.240140579371835</v>
       </c>
       <c r="H15">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="I15">
-        <v>36.14916136582995</v>
+        <v>24.56928603928333</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>15.59171501367952</v>
+        <v>10.59712844061121</v>
       </c>
       <c r="C16">
-        <v>2.9673935304794</v>
+        <v>2.016830755868722</v>
       </c>
       <c r="D16">
-        <v>5.914835926882485</v>
+        <v>4.020101442806152</v>
       </c>
       <c r="E16">
-        <v>1.285279418270446</v>
+        <v>0.8735582368928712</v>
       </c>
       <c r="F16">
-        <v>1.291191131756066</v>
+        <v>0.8775762161245491</v>
       </c>
       <c r="G16">
-        <v>3.766803021876536</v>
+        <v>2.560160662139241</v>
       </c>
       <c r="H16">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="I16">
-        <v>31.0475377979542</v>
+        <v>21.10189581588608</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>9.896537673353473</v>
+        <v>6.726321046136461</v>
       </c>
       <c r="C17">
-        <v>3.999530410646148</v>
+        <v>2.718337105736104</v>
       </c>
       <c r="D17">
-        <v>2.957417963441242</v>
+        <v>2.010050721403076</v>
       </c>
       <c r="E17">
-        <v>0.4284264727568155</v>
+        <v>0.2911860789642903</v>
       </c>
       <c r="F17">
-        <v>2.699763275489957</v>
+        <v>1.834932088260421</v>
       </c>
       <c r="G17">
-        <v>3.766803021876536</v>
+        <v>2.560160662139241</v>
       </c>
       <c r="I17">
-        <v>23.74847881756417</v>
+        <v>16.1409877026396</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,25 +899,25 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>6.768858314321946</v>
+        <v>4.600549772121635</v>
       </c>
       <c r="C18">
-        <v>3.483461970562773</v>
+        <v>2.367583930802413</v>
       </c>
       <c r="D18">
-        <v>2.957417963441242</v>
+        <v>2.010050721403076</v>
       </c>
       <c r="E18">
-        <v>0.4284264727568155</v>
+        <v>0.2911860789642903</v>
       </c>
       <c r="F18">
-        <v>1.408572143733891</v>
+        <v>0.9573558721358718</v>
       </c>
       <c r="G18">
-        <v>5.179354155080236</v>
+        <v>3.520220910441456</v>
       </c>
       <c r="I18">
-        <v>20.2260910198969</v>
+        <v>13.74694728586874</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,25 +925,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>7.002267221712358</v>
+        <v>4.759189419436173</v>
       </c>
       <c r="C19">
-        <v>2.9673935304794</v>
+        <v>2.016830755868722</v>
       </c>
       <c r="D19">
-        <v>4.224882804916061</v>
+        <v>2.871501030575822</v>
       </c>
       <c r="E19">
-        <v>2.142132363784077</v>
+        <v>1.455930394821451</v>
       </c>
       <c r="F19">
-        <v>2.465001251534308</v>
+        <v>1.675372776237776</v>
       </c>
       <c r="G19">
-        <v>4.237653399611103</v>
+        <v>2.880180744906647</v>
       </c>
       <c r="I19">
-        <v>23.03933057203731</v>
+        <v>15.65900512184659</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -951,25 +951,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>11.99721783986717</v>
+        <v>8.154077871967313</v>
       </c>
       <c r="C20">
-        <v>1.806239540291809</v>
+        <v>1.227636112267918</v>
       </c>
       <c r="D20">
-        <v>6.33732420737409</v>
+        <v>4.307251545863735</v>
       </c>
       <c r="E20">
-        <v>1.285279418270446</v>
+        <v>0.8735582368928712</v>
       </c>
       <c r="F20">
-        <v>4.930002503068617</v>
+        <v>3.350745552475551</v>
       </c>
       <c r="G20">
-        <v>5.179354155080236</v>
+        <v>3.520220910441456</v>
       </c>
       <c r="I20">
-        <v>31.53541766395237</v>
+        <v>21.43349022990884</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>27.82234176093712</v>
+        <v>18.90984595989307</v>
       </c>
       <c r="C21">
-        <v>1.548205320250122</v>
+        <v>1.052259524801072</v>
       </c>
       <c r="D21">
-        <v>14.78708981720621</v>
+        <v>10.05025360701538</v>
       </c>
       <c r="E21">
-        <v>16.28020596475899</v>
+        <v>11.06507100064303</v>
       </c>
       <c r="F21">
-        <v>8.451432862403344</v>
+        <v>5.744135232815229</v>
       </c>
       <c r="G21">
-        <v>13.65466095430244</v>
+        <v>9.280582400254749</v>
       </c>
       <c r="H21">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="I21">
-        <v>82.77425643486798</v>
+        <v>56.25868778686587</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>49.52937014824542</v>
+        <v>33.66333316014521</v>
       </c>
       <c r="C22">
-        <v>5.160684400833739</v>
+        <v>3.507531749336908</v>
       </c>
       <c r="D22">
-        <v>26.61676167097118</v>
+        <v>18.09045649262769</v>
       </c>
       <c r="E22">
-        <v>41.98579433016792</v>
+        <v>28.53623573850044</v>
       </c>
       <c r="F22">
-        <v>14.0857214373389</v>
+        <v>9.573558721358717</v>
       </c>
       <c r="G22">
-        <v>21.18826699805552</v>
+        <v>14.40090372453323</v>
       </c>
       <c r="H22">
-        <v>1.151598775048747</v>
+        <v>0.7827003072166946</v>
       </c>
       <c r="I22">
-        <v>159.7181977606614</v>
+        <v>108.5547198937189</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>68.57553699130304</v>
+        <v>46.6083283810116</v>
       </c>
       <c r="C23">
-        <v>2.58034220041687</v>
+        <v>1.753765874668454</v>
       </c>
       <c r="D23">
-        <v>17.74450778064745</v>
+        <v>12.06030432841846</v>
       </c>
       <c r="E23">
-        <v>35.13097076605887</v>
+        <v>23.87725847507181</v>
       </c>
       <c r="F23">
-        <v>16.66810370085104</v>
+        <v>11.32871115360781</v>
       </c>
       <c r="G23">
-        <v>19.30486548711725</v>
+        <v>13.12082339346361</v>
       </c>
       <c r="H23">
-        <v>2.303197550097493</v>
+        <v>1.565400614433389</v>
       </c>
       <c r="I23">
-        <v>162.307524476492</v>
+        <v>110.3145922206751</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>80.2459823608236</v>
+        <v>54.54031074673855</v>
       </c>
       <c r="C24">
-        <v>3.096410640500243</v>
+        <v>2.104519049602144</v>
       </c>
       <c r="D24">
-        <v>21.96939058556351</v>
+        <v>14.93180535899428</v>
       </c>
       <c r="E24">
-        <v>15.42335301924535</v>
+        <v>10.48269884271445</v>
       </c>
       <c r="F24">
-        <v>17.72453280865146</v>
+        <v>12.04672805770972</v>
       </c>
       <c r="G24">
-        <v>26.83847153087032</v>
+        <v>18.2411447177421</v>
       </c>
       <c r="H24">
-        <v>1.842558040077994</v>
+        <v>1.252320491546711</v>
       </c>
       <c r="I24">
-        <v>167.1406989857325</v>
+        <v>113.5995272650479</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>64.79431269157838</v>
+        <v>44.03836609451609</v>
       </c>
       <c r="C25">
-        <v>6.321838391021331</v>
+        <v>4.296726392937712</v>
       </c>
       <c r="D25">
-        <v>28.72920307342921</v>
+        <v>19.5262070079156</v>
       </c>
       <c r="E25">
-        <v>11.56751476443401</v>
+        <v>7.862024132035837</v>
       </c>
       <c r="F25">
-        <v>22.65453531172007</v>
+        <v>15.39747361018527</v>
       </c>
       <c r="G25">
-        <v>31.54697530821599</v>
+        <v>21.44134554541615</v>
       </c>
       <c r="H25">
-        <v>0.921279020038997</v>
+        <v>0.6261602457733555</v>
       </c>
       <c r="I25">
-        <v>166.535658560438</v>
+        <v>113.18830302878</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>66.3348114803551</v>
+        <v>45.08538776679202</v>
       </c>
       <c r="C26">
-        <v>6.966923941125547</v>
+        <v>4.735167861604825</v>
       </c>
       <c r="D26">
-        <v>27.4617382319544</v>
+        <v>18.66475669874285</v>
       </c>
       <c r="E26">
-        <v>6.854823564109048</v>
+        <v>4.658977263428644</v>
       </c>
       <c r="F26">
-        <v>29.5800150184117</v>
+        <v>20.1044733148533</v>
       </c>
       <c r="G26">
-        <v>32.48867606368512</v>
+        <v>22.08138571095095</v>
       </c>
       <c r="H26">
-        <v>2.303197550097493</v>
+        <v>1.565400614433389</v>
       </c>
       <c r="I26">
-        <v>171.9901858497384</v>
+        <v>116.895549230806</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>65.16776694340304</v>
+        <v>44.29218953021937</v>
       </c>
       <c r="C27">
-        <v>8.386112151354824</v>
+        <v>5.699739092672475</v>
       </c>
       <c r="D27">
-        <v>24.50432026851315</v>
+        <v>16.65470597733977</v>
       </c>
       <c r="E27">
-        <v>5.5695441458386</v>
+        <v>3.785419026535775</v>
       </c>
       <c r="F27">
-        <v>24.53263150336526</v>
+        <v>16.67394810636643</v>
       </c>
       <c r="G27">
-        <v>30.13442417501229</v>
+        <v>20.48128529711393</v>
       </c>
       <c r="H27">
-        <v>2.072877795087743</v>
+        <v>1.40886055299005</v>
       </c>
       <c r="I27">
-        <v>160.3676769825749</v>
+        <v>108.9961475832378</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>66.52153860626744</v>
+        <v>45.21229948464364</v>
       </c>
       <c r="C28">
-        <v>6.450855501042175</v>
+        <v>4.384414686671135</v>
       </c>
       <c r="D28">
-        <v>21.5469023050719</v>
+        <v>14.64465525593669</v>
       </c>
       <c r="E28">
-        <v>8.140102982379494</v>
+        <v>5.532535500321516</v>
       </c>
       <c r="F28">
-        <v>20.77643912007489</v>
+        <v>14.12099911400411</v>
       </c>
       <c r="G28">
-        <v>22.12996775352465</v>
+        <v>15.04094389006804</v>
       </c>
       <c r="H28">
-        <v>2.994156815126741</v>
+        <v>2.035020798763405</v>
       </c>
       <c r="I28">
-        <v>148.5599630834873</v>
+        <v>100.9708687304085</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>70.39612646894827</v>
+        <v>47.84571763006499</v>
       </c>
       <c r="C29">
-        <v>5.805769950937956</v>
+        <v>3.945973218004022</v>
       </c>
       <c r="D29">
-        <v>31.26413275637885</v>
+        <v>21.24910762626109</v>
       </c>
       <c r="E29">
-        <v>10.71066181892039</v>
+        <v>7.279651974107258</v>
       </c>
       <c r="F29">
-        <v>23.7109644195205</v>
+        <v>16.11549051428717</v>
       </c>
       <c r="G29">
-        <v>21.65911737579007</v>
+        <v>14.72092380730063</v>
       </c>
       <c r="H29">
-        <v>2.994156815126741</v>
+        <v>2.035020798763405</v>
       </c>
       <c r="I29">
-        <v>166.5409296056228</v>
+        <v>113.1918855687886</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>61.80667867698107</v>
+        <v>42.00777860888999</v>
       </c>
       <c r="C30">
-        <v>5.547735730896268</v>
+        <v>3.770596630537177</v>
       </c>
       <c r="D30">
-        <v>31.68662103687046</v>
+        <v>21.53625772931867</v>
       </c>
       <c r="E30">
-        <v>6.854823564109048</v>
+        <v>4.658977263428644</v>
       </c>
       <c r="F30">
-        <v>21.59810620391966</v>
+        <v>14.67945670608337</v>
       </c>
       <c r="G30">
-        <v>12.71296019883331</v>
+        <v>8.640542234719939</v>
       </c>
       <c r="H30">
-        <v>1.842558040077994</v>
+        <v>1.252320491546711</v>
       </c>
       <c r="I30">
-        <v>142.0494834516878</v>
+        <v>96.54592966452449</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>72.68353376137429</v>
+        <v>49.40038617374748</v>
       </c>
       <c r="C31">
-        <v>4.257564630687835</v>
+        <v>2.89371369320295</v>
       </c>
       <c r="D31">
-        <v>22.81436714654673</v>
+        <v>15.50610556510944</v>
       </c>
       <c r="E31">
-        <v>6.42639709135223</v>
+        <v>4.367791184464354</v>
       </c>
       <c r="F31">
-        <v>21.12858215600836</v>
+        <v>14.36033808203807</v>
       </c>
       <c r="G31">
-        <v>19.7757158648518</v>
+        <v>13.44084347623101</v>
       </c>
       <c r="H31">
-        <v>3.45479632514624</v>
+        <v>2.348100921650083</v>
       </c>
       <c r="I31">
-        <v>150.5409569759675</v>
+        <v>102.3172790964434</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>83.04688924950857</v>
+        <v>56.44398651451301</v>
       </c>
       <c r="C32">
-        <v>5.676752840917112</v>
+        <v>3.858284924270599</v>
       </c>
       <c r="D32">
-        <v>27.4617382319544</v>
+        <v>18.66475669874285</v>
       </c>
       <c r="E32">
-        <v>14.13807360097491</v>
+        <v>9.609140605821581</v>
       </c>
       <c r="F32">
-        <v>20.42429608414142</v>
+        <v>13.88166014597014</v>
       </c>
       <c r="G32">
-        <v>16.00891284297528</v>
+        <v>10.88068281409177</v>
       </c>
       <c r="H32">
-        <v>2.072877795087743</v>
+        <v>1.40886055299005</v>
       </c>
       <c r="I32">
-        <v>168.8295406455594</v>
+        <v>114.7473722564</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>91.07615566373877</v>
+        <v>61.90119038213319</v>
       </c>
       <c r="C33">
-        <v>4.257564630687835</v>
+        <v>2.89371369320295</v>
       </c>
       <c r="D33">
-        <v>20.7019257440887</v>
+        <v>14.07035504982153</v>
       </c>
       <c r="E33">
-        <v>23.99188247438166</v>
+        <v>16.30642042200025</v>
       </c>
       <c r="F33">
-        <v>16.66810370085104</v>
+        <v>11.32871115360781</v>
       </c>
       <c r="G33">
-        <v>8.004456421487639</v>
+        <v>5.440341407045887</v>
       </c>
       <c r="H33">
-        <v>1.612238285068245</v>
+        <v>1.095780430103372</v>
       </c>
       <c r="I33">
-        <v>166.3123269203039</v>
+        <v>113.036512537915</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,28 +1354,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>95.04410708937579</v>
+        <v>64.59806438648032</v>
       </c>
       <c r="C34">
-        <v>2.9673935304794</v>
+        <v>2.016830755868722</v>
       </c>
       <c r="D34">
-        <v>23.65934370752994</v>
+        <v>16.08040577122461</v>
       </c>
       <c r="E34">
-        <v>30.84670603849071</v>
+        <v>20.96539768542889</v>
       </c>
       <c r="F34">
-        <v>11.26857714987112</v>
+        <v>7.658846977086974</v>
       </c>
       <c r="G34">
-        <v>4.237653399611103</v>
+        <v>2.880180744906647</v>
       </c>
       <c r="H34">
-        <v>1.151598775048747</v>
+        <v>0.7827003072166946</v>
       </c>
       <c r="I34">
-        <v>169.1753796904068</v>
+        <v>114.9824266282129</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1383,28 +1383,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>66.66158395070165</v>
+        <v>45.30748327303237</v>
       </c>
       <c r="C35">
-        <v>2.709359310437713</v>
+        <v>1.841454168401877</v>
       </c>
       <c r="D35">
-        <v>19.43446090261388</v>
+        <v>13.20890474064879</v>
       </c>
       <c r="E35">
-        <v>23.13502952886803</v>
+        <v>15.72404826407167</v>
       </c>
       <c r="F35">
-        <v>6.573336670758156</v>
+        <v>4.467660736634067</v>
       </c>
       <c r="G35">
-        <v>7.062755666018505</v>
+        <v>4.800301241511079</v>
       </c>
       <c r="H35">
-        <v>1.151598775048747</v>
+        <v>0.7827003072166946</v>
       </c>
       <c r="I35">
-        <v>126.7281248044467</v>
+        <v>86.13255273151655</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1412,28 +1412,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>59.00577178829615</v>
+        <v>40.10410284111551</v>
       </c>
       <c r="C36">
-        <v>1.806239540291809</v>
+        <v>1.227636112267918</v>
       </c>
       <c r="D36">
-        <v>13.09713669523979</v>
+        <v>8.90165319478505</v>
       </c>
       <c r="E36">
-        <v>24.84873541989531</v>
+        <v>16.88879257992884</v>
       </c>
       <c r="F36">
-        <v>5.164764527024265</v>
+        <v>3.510304864498196</v>
       </c>
       <c r="G36">
-        <v>6.591905288283937</v>
+        <v>4.48028115874367</v>
       </c>
       <c r="H36">
-        <v>1.612238285068245</v>
+        <v>1.095780430103372</v>
       </c>
       <c r="I36">
-        <v>112.1267915440995</v>
+        <v>76.20855118144254</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1441,28 +1441,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>47.19528107434128</v>
+        <v>32.07693668699983</v>
       </c>
       <c r="C37">
-        <v>1.806239540291809</v>
+        <v>1.227636112267918</v>
       </c>
       <c r="D37">
-        <v>14.36460153671461</v>
+        <v>9.763103503957799</v>
       </c>
       <c r="E37">
-        <v>13.7096471282181</v>
+        <v>9.317954526857289</v>
       </c>
       <c r="F37">
-        <v>4.577859467135145</v>
+        <v>3.111406584441583</v>
       </c>
       <c r="G37">
-        <v>4.237653399611103</v>
+        <v>2.880180744906647</v>
       </c>
       <c r="H37">
-        <v>0.921279020038997</v>
+        <v>0.6261602457733555</v>
       </c>
       <c r="I37">
-        <v>86.81256116635103</v>
+        <v>59.00337840520442</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1470,28 +1470,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>36.31842598994811</v>
+        <v>24.68432912214228</v>
       </c>
       <c r="C38">
-        <v>3.096410640500243</v>
+        <v>2.104519049602144</v>
       </c>
       <c r="D38">
-        <v>8.449765609832122</v>
+        <v>5.743002061151644</v>
       </c>
       <c r="E38">
-        <v>6.854823564109048</v>
+        <v>4.658977263428644</v>
       </c>
       <c r="F38">
-        <v>3.404049347356903</v>
+        <v>2.313610024328356</v>
       </c>
       <c r="G38">
-        <v>4.237653399611103</v>
+        <v>2.880180744906647</v>
       </c>
       <c r="H38">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="I38">
-        <v>62.82176806137703</v>
+        <v>42.69769838844639</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1499,28 +1499,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>22.68734579834805</v>
+        <v>15.4197737189732</v>
       </c>
       <c r="C39">
-        <v>2.451325090396026</v>
+        <v>1.666077580935031</v>
       </c>
       <c r="D39">
-        <v>5.914835926882485</v>
+        <v>4.020101442806152</v>
       </c>
       <c r="E39">
-        <v>2.998985309297708</v>
+        <v>2.038302552750032</v>
       </c>
       <c r="F39">
-        <v>1.760715179667363</v>
+        <v>1.19669484016984</v>
       </c>
       <c r="G39">
-        <v>2.825102266407402</v>
+        <v>1.920120496604431</v>
       </c>
       <c r="H39">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="I39">
-        <v>38.86862932600879</v>
+        <v>26.41761069368202</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1528,28 +1528,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>17.22557736541239</v>
+        <v>11.70760597181299</v>
       </c>
       <c r="C40">
-        <v>5.289701510854583</v>
+        <v>3.595220043070332</v>
       </c>
       <c r="D40">
-        <v>4.647371085407668</v>
+        <v>3.158651133633405</v>
       </c>
       <c r="E40">
-        <v>1.713705891027262</v>
+        <v>1.164744315857161</v>
       </c>
       <c r="F40">
-        <v>1.643334167689539</v>
+        <v>1.116915184158517</v>
       </c>
       <c r="G40">
-        <v>5.179354155080236</v>
+        <v>3.520220910441456</v>
       </c>
       <c r="H40">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="I40">
-        <v>36.15968368549118</v>
+        <v>24.57643768186054</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1557,28 +1557,28 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>12.32399031021375</v>
+        <v>8.376173378207666</v>
       </c>
       <c r="C41">
-        <v>3.999530410646148</v>
+        <v>2.718337105736104</v>
       </c>
       <c r="D41">
-        <v>2.957417963441242</v>
+        <v>2.010050721403076</v>
       </c>
       <c r="E41">
-        <v>0.4284264727568155</v>
+        <v>0.2911860789642903</v>
       </c>
       <c r="F41">
-        <v>2.934525299445606</v>
+        <v>1.994491400283066</v>
       </c>
       <c r="G41">
-        <v>5.179354155080236</v>
+        <v>3.520220910441456</v>
       </c>
       <c r="H41">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="I41">
-        <v>28.05356436659355</v>
+        <v>19.06699965647899</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1586,25 +1586,25 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>9.10294738822607</v>
+        <v>6.186946245267027</v>
       </c>
       <c r="C42">
-        <v>2.322307980375183</v>
+        <v>1.578389287201609</v>
       </c>
       <c r="D42">
-        <v>4.647371085407668</v>
+        <v>3.158651133633405</v>
       </c>
       <c r="E42">
-        <v>0.856852945513631</v>
+        <v>0.5823721579285805</v>
       </c>
       <c r="F42">
-        <v>1.525953155711715</v>
+        <v>1.037135528147194</v>
       </c>
       <c r="G42">
-        <v>4.708503777345669</v>
+        <v>3.200200827674053</v>
       </c>
       <c r="I42">
-        <v>23.16393633257993</v>
+        <v>15.74369517985187</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1612,28 +1612,28 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>7.142312566146606</v>
+        <v>4.8543732078249</v>
       </c>
       <c r="C43">
-        <v>2.064273760333495</v>
+        <v>1.403012699734763</v>
       </c>
       <c r="D43">
-        <v>4.647371085407668</v>
+        <v>3.158651133633405</v>
       </c>
       <c r="E43">
-        <v>0.856852945513631</v>
+        <v>0.5823721579285805</v>
       </c>
       <c r="F43">
-        <v>1.878096191645188</v>
+        <v>1.276474496181162</v>
       </c>
       <c r="G43">
-        <v>6.591905288283937</v>
+        <v>4.48028115874367</v>
       </c>
       <c r="H43">
-        <v>0.2303197550097492</v>
+        <v>0.1565400614433389</v>
       </c>
       <c r="I43">
-        <v>23.41113159234027</v>
+        <v>15.91170491548982</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>11.76380893247677</v>
+        <v>7.995438224652774</v>
       </c>
       <c r="C44">
-        <v>1.677222430270965</v>
+        <v>1.139947818534495</v>
       </c>
       <c r="D44">
-        <v>5.069859365899274</v>
+        <v>3.445801236690987</v>
       </c>
       <c r="E44">
-        <v>1.285279418270446</v>
+        <v>0.8735582368928712</v>
       </c>
       <c r="F44">
-        <v>5.164764527024265</v>
+        <v>3.510304864498196</v>
       </c>
       <c r="G44">
-        <v>6.591905288283937</v>
+        <v>4.48028115874367</v>
       </c>
       <c r="I44">
-        <v>31.55283996222565</v>
+        <v>21.44533154001299</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>27.96238710537135</v>
+        <v>19.00502974828179</v>
       </c>
       <c r="C45">
-        <v>1.419188210229278</v>
+        <v>0.9645712310676499</v>
       </c>
       <c r="D45">
-        <v>8.027277329340514</v>
+        <v>5.455851958094063</v>
       </c>
       <c r="E45">
-        <v>13.7096471282181</v>
+        <v>9.317954526857289</v>
       </c>
       <c r="F45">
-        <v>11.26857714987112</v>
+        <v>7.658846977086974</v>
       </c>
       <c r="G45">
-        <v>14.12551133203701</v>
+        <v>9.600602483022158</v>
       </c>
       <c r="H45">
-        <v>0.4606395100194985</v>
+        <v>0.3130801228866777</v>
       </c>
       <c r="I45">
-        <v>76.97322776508688</v>
+        <v>52.31593704729659</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>51.11655071850021</v>
+        <v>34.74208276188407</v>
       </c>
       <c r="C46">
-        <v>1.419188210229278</v>
+        <v>0.9645712310676499</v>
       </c>
       <c r="D46">
-        <v>17.32201950015585</v>
+        <v>11.77315422536087</v>
       </c>
       <c r="E46">
-        <v>41.98579433016792</v>
+        <v>28.53623573850044</v>
       </c>
       <c r="F46">
-        <v>14.32048346129455</v>
+        <v>9.733118033381361</v>
       </c>
       <c r="G46">
-        <v>27.78017228633945</v>
+        <v>18.88118488327691</v>
       </c>
       <c r="H46">
-        <v>0.921279020038997</v>
+        <v>0.6261602457733555</v>
       </c>
       <c r="I46">
-        <v>154.8654875267263</v>
+        <v>105.2565071192446</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>69.78926330973319</v>
+        <v>47.43325454704724</v>
       </c>
       <c r="C47">
-        <v>2.193290870354339</v>
+        <v>1.490700993468186</v>
       </c>
       <c r="D47">
-        <v>21.96939058556351</v>
+        <v>14.93180535899428</v>
       </c>
       <c r="E47">
-        <v>33.41726487503161</v>
+        <v>22.71251415921463</v>
       </c>
       <c r="F47">
-        <v>14.90738852118368</v>
+        <v>10.13201631343797</v>
       </c>
       <c r="G47">
-        <v>22.60081813125921</v>
+        <v>15.36096397283545</v>
       </c>
       <c r="H47">
-        <v>1.612238285068245</v>
+        <v>1.095780430103372</v>
       </c>
       <c r="I47">
-        <v>166.4896545781938</v>
+        <v>113.1570357751011</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>77.02493943883596</v>
+        <v>52.35108361379793</v>
       </c>
       <c r="C48">
-        <v>3.225427750521087</v>
+        <v>2.192207343335567</v>
       </c>
       <c r="D48">
-        <v>25.34929682949636</v>
+        <v>17.22900618345494</v>
       </c>
       <c r="E48">
-        <v>17.13705891027262</v>
+        <v>11.64744315857161</v>
       </c>
       <c r="F48">
-        <v>18.4288188805184</v>
+        <v>12.52540599377765</v>
       </c>
       <c r="G48">
-        <v>23.54251888672835</v>
+        <v>16.00100413837026</v>
       </c>
       <c r="H48">
-        <v>2.072877795087743</v>
+        <v>1.40886055299005</v>
       </c>
       <c r="I48">
-        <v>166.7809384914605</v>
+        <v>113.355010984298</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>64.79431269157838</v>
+        <v>44.03836609451609</v>
       </c>
       <c r="C49">
-        <v>6.321838391021331</v>
+        <v>4.296726392937712</v>
       </c>
       <c r="D49">
-        <v>28.72920307342921</v>
+        <v>19.5262070079156</v>
       </c>
       <c r="E49">
-        <v>11.56751476443401</v>
+        <v>7.862024132035837</v>
       </c>
       <c r="F49">
-        <v>22.65453531172007</v>
+        <v>15.39747361018527</v>
       </c>
       <c r="G49">
-        <v>31.54697530821599</v>
+        <v>21.44134554541615</v>
       </c>
       <c r="H49">
-        <v>0.921279020038997</v>
+        <v>0.6261602457733555</v>
       </c>
       <c r="I49">
-        <v>166.535658560438</v>
+        <v>113.18830302878</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM10_재비산.xlsx
+++ b/output/경기대로_겨울_배출량/경기대로_겨울_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>43.84799851773864</v>
+        <v>64.51422200270986</v>
       </c>
       <c r="C2">
-        <v>5.699739092672475</v>
+        <v>8.386112151354824</v>
       </c>
       <c r="D2">
-        <v>20.67480742014592</v>
+        <v>30.41915619539564</v>
       </c>
       <c r="E2">
-        <v>4.658977263428644</v>
+        <v>6.854823564109048</v>
       </c>
       <c r="F2">
-        <v>18.82799881867214</v>
+        <v>27.70191882676652</v>
       </c>
       <c r="G2">
-        <v>18.5611648005095</v>
+        <v>27.30932190860489</v>
       </c>
       <c r="H2">
-        <v>1.252320491546711</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="I2">
-        <v>113.523006404714</v>
+        <v>167.0281126890188</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>45.59303463819853</v>
+        <v>67.08171998400439</v>
       </c>
       <c r="C3">
-        <v>4.998232742805094</v>
+        <v>7.353975271188077</v>
       </c>
       <c r="D3">
-        <v>18.95190680180043</v>
+        <v>27.88422651244601</v>
       </c>
       <c r="E3">
-        <v>4.658977263428644</v>
+        <v>6.854823564109048</v>
       </c>
       <c r="F3">
-        <v>14.75923636209469</v>
+        <v>21.71548721589748</v>
       </c>
       <c r="G3">
-        <v>16.00100413837026</v>
+        <v>23.54251888672835</v>
       </c>
       <c r="H3">
-        <v>1.721940675876728</v>
+        <v>2.533517305107242</v>
       </c>
       <c r="I3">
-        <v>106.6843326225744</v>
+        <v>156.9662687394806</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>48.06781313630535</v>
+        <v>70.72289893929482</v>
       </c>
       <c r="C4">
-        <v>5.348985917738784</v>
+        <v>7.870043711271451</v>
       </c>
       <c r="D4">
-        <v>18.66475669874285</v>
+        <v>27.4617382319544</v>
       </c>
       <c r="E4">
-        <v>4.367791184464354</v>
+        <v>6.42639709135223</v>
       </c>
       <c r="F4">
-        <v>16.67394810636643</v>
+        <v>24.53263150336526</v>
       </c>
       <c r="G4">
-        <v>14.40090372453323</v>
+        <v>21.18826699805552</v>
       </c>
       <c r="H4">
-        <v>1.565400614433389</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="I4">
-        <v>109.0895993825844</v>
+        <v>160.5051740253912</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>47.8139897006021</v>
+        <v>70.34944468747018</v>
       </c>
       <c r="C5">
-        <v>3.945973218004022</v>
+        <v>5.805769950937956</v>
       </c>
       <c r="D5">
-        <v>17.22900618345494</v>
+        <v>25.34929682949636</v>
       </c>
       <c r="E5">
-        <v>4.367791184464354</v>
+        <v>6.42639709135223</v>
       </c>
       <c r="F5">
-        <v>16.83350741838908</v>
+        <v>24.76739352732091</v>
       </c>
       <c r="G5">
-        <v>10.88068281409177</v>
+        <v>16.00891284297528</v>
       </c>
       <c r="H5">
-        <v>1.252320491546711</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="I5">
-        <v>102.323271010553</v>
+        <v>150.5497729696309</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>49.43211410321038</v>
+        <v>72.73021554285235</v>
       </c>
       <c r="C6">
-        <v>4.735167861604825</v>
+        <v>6.966923941125547</v>
       </c>
       <c r="D6">
-        <v>20.38765731708834</v>
+        <v>29.99666791490403</v>
       </c>
       <c r="E6">
-        <v>5.532535500321516</v>
+        <v>8.140102982379494</v>
       </c>
       <c r="F6">
-        <v>14.4401177380494</v>
+        <v>21.24596316798618</v>
       </c>
       <c r="G6">
-        <v>11.52072297962659</v>
+        <v>16.95061359844441</v>
       </c>
       <c r="H6">
-        <v>0.9392403686600335</v>
+        <v>1.381918530058495</v>
       </c>
       <c r="I6">
-        <v>106.9875558685611</v>
+        <v>157.4124056777505</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>50.44740784602347</v>
+        <v>74.22403255015102</v>
       </c>
       <c r="C7">
-        <v>4.121349805470867</v>
+        <v>6.063804170979642</v>
       </c>
       <c r="D7">
-        <v>21.24910762626109</v>
+        <v>31.26413275637885</v>
       </c>
       <c r="E7">
-        <v>5.241349421357223</v>
+        <v>7.711676509622677</v>
       </c>
       <c r="F7">
-        <v>12.6849653058003</v>
+        <v>18.66358090447405</v>
       </c>
       <c r="G7">
-        <v>9.280582400254749</v>
+        <v>13.65466095430244</v>
       </c>
       <c r="H7">
-        <v>2.035020798763405</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="I7">
-        <v>105.0597832039311</v>
+        <v>154.5760446610354</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>55.27005312438544</v>
+        <v>81.31966333481951</v>
       </c>
       <c r="C8">
-        <v>4.55979127413798</v>
+        <v>6.708889721083861</v>
       </c>
       <c r="D8">
-        <v>20.10050721403076</v>
+        <v>29.57417963441242</v>
       </c>
       <c r="E8">
-        <v>9.900326684785869</v>
+        <v>14.56650007373172</v>
       </c>
       <c r="F8">
-        <v>13.80188048995882</v>
+        <v>20.30691507216359</v>
       </c>
       <c r="G8">
-        <v>6.080381572580698</v>
+        <v>8.946157176956774</v>
       </c>
       <c r="H8">
-        <v>1.721940675876728</v>
+        <v>2.533517305107242</v>
       </c>
       <c r="I8">
-        <v>111.4348810357563</v>
+        <v>163.9558223182752</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>60.98108042770886</v>
+        <v>89.72238400087438</v>
       </c>
       <c r="C9">
-        <v>3.858284924270599</v>
+        <v>5.676752840917112</v>
       </c>
       <c r="D9">
-        <v>19.23905690485802</v>
+        <v>28.30671479293761</v>
       </c>
       <c r="E9">
-        <v>18.05353689578599</v>
+        <v>26.56244131092256</v>
       </c>
       <c r="F9">
-        <v>12.92430427383427</v>
+        <v>19.01572394040753</v>
       </c>
       <c r="G9">
-        <v>6.080381572580698</v>
+        <v>8.946157176956774</v>
       </c>
       <c r="H9">
-        <v>1.095780430103372</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="I9">
-        <v>122.2324254291418</v>
+        <v>179.8424123480842</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>58.60148571799076</v>
+        <v>86.2212503900182</v>
       </c>
       <c r="C10">
-        <v>4.384414686671135</v>
+        <v>6.450855501042175</v>
       </c>
       <c r="D10">
-        <v>23.83345855377934</v>
+        <v>35.06652728080331</v>
       </c>
       <c r="E10">
-        <v>21.83895592232177</v>
+        <v>32.13198545676116</v>
       </c>
       <c r="F10">
-        <v>6.94083007298507</v>
+        <v>10.21214804207071</v>
       </c>
       <c r="G10">
-        <v>4.48028115874367</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="H10">
-        <v>0.4696201843300167</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="I10">
-        <v>120.5490462968217</v>
+        <v>177.3656312240087</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>42.38851376244484</v>
+        <v>62.36686005471806</v>
       </c>
       <c r="C11">
-        <v>3.595220043070332</v>
+        <v>5.289701510854583</v>
       </c>
       <c r="D11">
-        <v>16.94185608039735</v>
+        <v>24.92680854900476</v>
       </c>
       <c r="E11">
-        <v>17.47116473785742</v>
+        <v>25.70558836540892</v>
       </c>
       <c r="F11">
-        <v>3.590084520509519</v>
+        <v>5.28214553900209</v>
       </c>
       <c r="G11">
-        <v>3.840240993208862</v>
+        <v>5.650204532814803</v>
       </c>
       <c r="H11">
-        <v>0.4696201843300167</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="I11">
-        <v>88.29670032181835</v>
+        <v>129.9122678168325</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>35.44009721006807</v>
+        <v>52.14354991101806</v>
       </c>
       <c r="C12">
-        <v>3.945973218004022</v>
+        <v>5.805769950937956</v>
       </c>
       <c r="D12">
-        <v>14.93180535899428</v>
+        <v>21.96939058556351</v>
       </c>
       <c r="E12">
-        <v>13.68574571132164</v>
+        <v>20.13604421957032</v>
       </c>
       <c r="F12">
-        <v>3.191186240452906</v>
+        <v>4.695240479112969</v>
       </c>
       <c r="G12">
-        <v>4.800301241511079</v>
+        <v>7.062755666018505</v>
       </c>
       <c r="H12">
-        <v>0.6261602457733555</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="I12">
-        <v>76.62126922612535</v>
+        <v>112.7340298322603</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>29.25315096480103</v>
+        <v>43.04060252279198</v>
       </c>
       <c r="C13">
-        <v>2.630648812002681</v>
+        <v>3.870513300625304</v>
       </c>
       <c r="D13">
-        <v>12.06030432841846</v>
+        <v>17.74450778064745</v>
       </c>
       <c r="E13">
-        <v>10.19151276375016</v>
+        <v>14.99492654648854</v>
       </c>
       <c r="F13">
-        <v>1.595593120226453</v>
+        <v>2.347620239556484</v>
       </c>
       <c r="G13">
-        <v>2.240140579371835</v>
+        <v>3.295952644141968</v>
       </c>
       <c r="H13">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I13">
-        <v>58.28443069145729</v>
+        <v>85.75476254427123</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>22.39991820081292</v>
+        <v>32.95733772352619</v>
       </c>
       <c r="C14">
-        <v>2.367583930802413</v>
+        <v>3.483461970562773</v>
       </c>
       <c r="D14">
-        <v>6.317302267266809</v>
+        <v>9.294742170815336</v>
       </c>
       <c r="E14">
-        <v>4.658977263428644</v>
+        <v>6.854823564109048</v>
       </c>
       <c r="F14">
-        <v>1.994491400283066</v>
+        <v>2.934525299445606</v>
       </c>
       <c r="G14">
-        <v>1.600100413837026</v>
+        <v>2.354251888672835</v>
       </c>
       <c r="H14">
-        <v>0.4696201843300167</v>
+        <v>0.6909592650292476</v>
       </c>
       <c r="I14">
-        <v>39.8079936607609</v>
+        <v>58.57010188216103</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>13.16709072710675</v>
+        <v>19.37293931340419</v>
       </c>
       <c r="C15">
-        <v>1.052259524801072</v>
+        <v>1.548205320250122</v>
       </c>
       <c r="D15">
-        <v>3.445801236690987</v>
+        <v>5.069859365899274</v>
       </c>
       <c r="E15">
-        <v>2.911860789642902</v>
+        <v>4.284264727568154</v>
       </c>
       <c r="F15">
-        <v>1.595593120226453</v>
+        <v>2.347620239556484</v>
       </c>
       <c r="G15">
-        <v>2.240140579371835</v>
+        <v>3.295952644141968</v>
       </c>
       <c r="H15">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I15">
-        <v>24.56928603928333</v>
+        <v>36.14916136582995</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>10.59712844061121</v>
+        <v>15.59171501367952</v>
       </c>
       <c r="C16">
-        <v>2.016830755868722</v>
+        <v>2.9673935304794</v>
       </c>
       <c r="D16">
-        <v>4.020101442806152</v>
+        <v>5.914835926882485</v>
       </c>
       <c r="E16">
-        <v>0.8735582368928712</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="F16">
-        <v>0.8775762161245491</v>
+        <v>1.291191131756066</v>
       </c>
       <c r="G16">
-        <v>2.560160662139241</v>
+        <v>3.766803021876536</v>
       </c>
       <c r="H16">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I16">
-        <v>21.10189581588608</v>
+        <v>31.0475377979542</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>6.726321046136461</v>
+        <v>9.896537673353473</v>
       </c>
       <c r="C17">
-        <v>2.718337105736104</v>
+        <v>3.999530410646148</v>
       </c>
       <c r="D17">
-        <v>2.010050721403076</v>
+        <v>2.957417963441242</v>
       </c>
       <c r="E17">
-        <v>0.2911860789642903</v>
+        <v>0.4284264727568155</v>
       </c>
       <c r="F17">
-        <v>1.834932088260421</v>
+        <v>2.699763275489957</v>
       </c>
       <c r="G17">
-        <v>2.560160662139241</v>
+        <v>3.766803021876536</v>
       </c>
       <c r="I17">
-        <v>16.1409877026396</v>
+        <v>23.74847881756417</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,25 +899,25 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>4.600549772121635</v>
+        <v>6.768858314321946</v>
       </c>
       <c r="C18">
-        <v>2.367583930802413</v>
+        <v>3.483461970562773</v>
       </c>
       <c r="D18">
-        <v>2.010050721403076</v>
+        <v>2.957417963441242</v>
       </c>
       <c r="E18">
-        <v>0.2911860789642903</v>
+        <v>0.4284264727568155</v>
       </c>
       <c r="F18">
-        <v>0.9573558721358718</v>
+        <v>1.408572143733891</v>
       </c>
       <c r="G18">
-        <v>3.520220910441456</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="I18">
-        <v>13.74694728586874</v>
+        <v>20.2260910198969</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,25 +925,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>4.759189419436173</v>
+        <v>7.002267221712358</v>
       </c>
       <c r="C19">
-        <v>2.016830755868722</v>
+        <v>2.9673935304794</v>
       </c>
       <c r="D19">
-        <v>2.871501030575822</v>
+        <v>4.224882804916061</v>
       </c>
       <c r="E19">
-        <v>1.455930394821451</v>
+        <v>2.142132363784077</v>
       </c>
       <c r="F19">
-        <v>1.675372776237776</v>
+        <v>2.465001251534308</v>
       </c>
       <c r="G19">
-        <v>2.880180744906647</v>
+        <v>4.237653399611103</v>
       </c>
       <c r="I19">
-        <v>15.65900512184659</v>
+        <v>23.03933057203731</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -951,25 +951,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>8.154077871967313</v>
+        <v>11.99721783986717</v>
       </c>
       <c r="C20">
-        <v>1.227636112267918</v>
+        <v>1.806239540291809</v>
       </c>
       <c r="D20">
-        <v>4.307251545863735</v>
+        <v>6.33732420737409</v>
       </c>
       <c r="E20">
-        <v>0.8735582368928712</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="F20">
-        <v>3.350745552475551</v>
+        <v>4.930002503068617</v>
       </c>
       <c r="G20">
-        <v>3.520220910441456</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="I20">
-        <v>21.43349022990884</v>
+        <v>31.53541766395237</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>18.90984595989307</v>
+        <v>27.82234176093712</v>
       </c>
       <c r="C21">
-        <v>1.052259524801072</v>
+        <v>1.548205320250122</v>
       </c>
       <c r="D21">
-        <v>10.05025360701538</v>
+        <v>14.78708981720621</v>
       </c>
       <c r="E21">
-        <v>11.06507100064303</v>
+        <v>16.28020596475899</v>
       </c>
       <c r="F21">
-        <v>5.744135232815229</v>
+        <v>8.451432862403344</v>
       </c>
       <c r="G21">
-        <v>9.280582400254749</v>
+        <v>13.65466095430244</v>
       </c>
       <c r="H21">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I21">
-        <v>56.25868778686587</v>
+        <v>82.77425643486798</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>33.66333316014521</v>
+        <v>49.52937014824542</v>
       </c>
       <c r="C22">
-        <v>3.507531749336908</v>
+        <v>5.160684400833739</v>
       </c>
       <c r="D22">
-        <v>18.09045649262769</v>
+        <v>26.61676167097118</v>
       </c>
       <c r="E22">
-        <v>28.53623573850044</v>
+        <v>41.98579433016792</v>
       </c>
       <c r="F22">
-        <v>9.573558721358717</v>
+        <v>14.0857214373389</v>
       </c>
       <c r="G22">
-        <v>14.40090372453323</v>
+        <v>21.18826699805552</v>
       </c>
       <c r="H22">
-        <v>0.7827003072166946</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="I22">
-        <v>108.5547198937189</v>
+        <v>159.7181977606614</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>46.6083283810116</v>
+        <v>68.57553699130304</v>
       </c>
       <c r="C23">
-        <v>1.753765874668454</v>
+        <v>2.58034220041687</v>
       </c>
       <c r="D23">
-        <v>12.06030432841846</v>
+        <v>17.74450778064745</v>
       </c>
       <c r="E23">
-        <v>23.87725847507181</v>
+        <v>35.13097076605887</v>
       </c>
       <c r="F23">
-        <v>11.32871115360781</v>
+        <v>16.66810370085104</v>
       </c>
       <c r="G23">
-        <v>13.12082339346361</v>
+        <v>19.30486548711725</v>
       </c>
       <c r="H23">
-        <v>1.565400614433389</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="I23">
-        <v>110.3145922206751</v>
+        <v>162.307524476492</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>54.54031074673855</v>
+        <v>80.2459823608236</v>
       </c>
       <c r="C24">
-        <v>2.104519049602144</v>
+        <v>3.096410640500243</v>
       </c>
       <c r="D24">
-        <v>14.93180535899428</v>
+        <v>21.96939058556351</v>
       </c>
       <c r="E24">
-        <v>10.48269884271445</v>
+        <v>15.42335301924535</v>
       </c>
       <c r="F24">
-        <v>12.04672805770972</v>
+        <v>17.72453280865146</v>
       </c>
       <c r="G24">
-        <v>18.2411447177421</v>
+        <v>26.83847153087032</v>
       </c>
       <c r="H24">
-        <v>1.252320491546711</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="I24">
-        <v>113.5995272650479</v>
+        <v>167.1406989857325</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>44.03836609451609</v>
+        <v>64.79431269157838</v>
       </c>
       <c r="C25">
-        <v>4.296726392937712</v>
+        <v>6.321838391021331</v>
       </c>
       <c r="D25">
-        <v>19.5262070079156</v>
+        <v>28.72920307342921</v>
       </c>
       <c r="E25">
-        <v>7.862024132035837</v>
+        <v>11.56751476443401</v>
       </c>
       <c r="F25">
-        <v>15.39747361018527</v>
+        <v>22.65453531172007</v>
       </c>
       <c r="G25">
-        <v>21.44134554541615</v>
+        <v>31.54697530821599</v>
       </c>
       <c r="H25">
-        <v>0.6261602457733555</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="I25">
-        <v>113.18830302878</v>
+        <v>166.535658560438</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>45.08538776679202</v>
+        <v>66.3348114803551</v>
       </c>
       <c r="C26">
-        <v>4.735167861604825</v>
+        <v>6.966923941125547</v>
       </c>
       <c r="D26">
-        <v>18.66475669874285</v>
+        <v>27.4617382319544</v>
       </c>
       <c r="E26">
-        <v>4.658977263428644</v>
+        <v>6.854823564109048</v>
       </c>
       <c r="F26">
-        <v>20.1044733148533</v>
+        <v>29.5800150184117</v>
       </c>
       <c r="G26">
-        <v>22.08138571095095</v>
+        <v>32.48867606368512</v>
       </c>
       <c r="H26">
-        <v>1.565400614433389</v>
+        <v>2.303197550097493</v>
       </c>
       <c r="I26">
-        <v>116.895549230806</v>
+        <v>171.9901858497384</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>44.29218953021937</v>
+        <v>65.16776694340304</v>
       </c>
       <c r="C27">
-        <v>5.699739092672475</v>
+        <v>8.386112151354824</v>
       </c>
       <c r="D27">
-        <v>16.65470597733977</v>
+        <v>24.50432026851315</v>
       </c>
       <c r="E27">
-        <v>3.785419026535775</v>
+        <v>5.5695441458386</v>
       </c>
       <c r="F27">
-        <v>16.67394810636643</v>
+        <v>24.53263150336526</v>
       </c>
       <c r="G27">
-        <v>20.48128529711393</v>
+        <v>30.13442417501229</v>
       </c>
       <c r="H27">
-        <v>1.40886055299005</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="I27">
-        <v>108.9961475832378</v>
+        <v>160.3676769825749</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>45.21229948464364</v>
+        <v>66.52153860626744</v>
       </c>
       <c r="C28">
-        <v>4.384414686671135</v>
+        <v>6.450855501042175</v>
       </c>
       <c r="D28">
-        <v>14.64465525593669</v>
+        <v>21.5469023050719</v>
       </c>
       <c r="E28">
-        <v>5.532535500321516</v>
+        <v>8.140102982379494</v>
       </c>
       <c r="F28">
-        <v>14.12099911400411</v>
+        <v>20.77643912007489</v>
       </c>
       <c r="G28">
-        <v>15.04094389006804</v>
+        <v>22.12996775352465</v>
       </c>
       <c r="H28">
-        <v>2.035020798763405</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="I28">
-        <v>100.9708687304085</v>
+        <v>148.5599630834873</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>47.84571763006499</v>
+        <v>70.39612646894827</v>
       </c>
       <c r="C29">
-        <v>3.945973218004022</v>
+        <v>5.805769950937956</v>
       </c>
       <c r="D29">
-        <v>21.24910762626109</v>
+        <v>31.26413275637885</v>
       </c>
       <c r="E29">
-        <v>7.279651974107258</v>
+        <v>10.71066181892039</v>
       </c>
       <c r="F29">
-        <v>16.11549051428717</v>
+        <v>23.7109644195205</v>
       </c>
       <c r="G29">
-        <v>14.72092380730063</v>
+        <v>21.65911737579007</v>
       </c>
       <c r="H29">
-        <v>2.035020798763405</v>
+        <v>2.994156815126741</v>
       </c>
       <c r="I29">
-        <v>113.1918855687886</v>
+        <v>166.5409296056228</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>42.00777860888999</v>
+        <v>61.80667867698107</v>
       </c>
       <c r="C30">
-        <v>3.770596630537177</v>
+        <v>5.547735730896268</v>
       </c>
       <c r="D30">
-        <v>21.53625772931867</v>
+        <v>31.68662103687046</v>
       </c>
       <c r="E30">
-        <v>4.658977263428644</v>
+        <v>6.854823564109048</v>
       </c>
       <c r="F30">
-        <v>14.67945670608337</v>
+        <v>21.59810620391966</v>
       </c>
       <c r="G30">
-        <v>8.640542234719939</v>
+        <v>12.71296019883331</v>
       </c>
       <c r="H30">
-        <v>1.252320491546711</v>
+        <v>1.842558040077994</v>
       </c>
       <c r="I30">
-        <v>96.54592966452449</v>
+        <v>142.0494834516878</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>49.40038617374748</v>
+        <v>72.68353376137429</v>
       </c>
       <c r="C31">
-        <v>2.89371369320295</v>
+        <v>4.257564630687835</v>
       </c>
       <c r="D31">
-        <v>15.50610556510944</v>
+        <v>22.81436714654673</v>
       </c>
       <c r="E31">
-        <v>4.367791184464354</v>
+        <v>6.42639709135223</v>
       </c>
       <c r="F31">
-        <v>14.36033808203807</v>
+        <v>21.12858215600836</v>
       </c>
       <c r="G31">
-        <v>13.44084347623101</v>
+        <v>19.7757158648518</v>
       </c>
       <c r="H31">
-        <v>2.348100921650083</v>
+        <v>3.45479632514624</v>
       </c>
       <c r="I31">
-        <v>102.3172790964434</v>
+        <v>150.5409569759675</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>56.44398651451301</v>
+        <v>83.04688924950857</v>
       </c>
       <c r="C32">
-        <v>3.858284924270599</v>
+        <v>5.676752840917112</v>
       </c>
       <c r="D32">
-        <v>18.66475669874285</v>
+        <v>27.4617382319544</v>
       </c>
       <c r="E32">
-        <v>9.609140605821581</v>
+        <v>14.13807360097491</v>
       </c>
       <c r="F32">
-        <v>13.88166014597014</v>
+        <v>20.42429608414142</v>
       </c>
       <c r="G32">
-        <v>10.88068281409177</v>
+        <v>16.00891284297528</v>
       </c>
       <c r="H32">
-        <v>1.40886055299005</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="I32">
-        <v>114.7473722564</v>
+        <v>168.8295406455594</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>61.90119038213319</v>
+        <v>91.07615566373877</v>
       </c>
       <c r="C33">
-        <v>2.89371369320295</v>
+        <v>4.257564630687835</v>
       </c>
       <c r="D33">
-        <v>14.07035504982153</v>
+        <v>20.7019257440887</v>
       </c>
       <c r="E33">
-        <v>16.30642042200025</v>
+        <v>23.99188247438166</v>
       </c>
       <c r="F33">
-        <v>11.32871115360781</v>
+        <v>16.66810370085104</v>
       </c>
       <c r="G33">
-        <v>5.440341407045887</v>
+        <v>8.004456421487639</v>
       </c>
       <c r="H33">
-        <v>1.095780430103372</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="I33">
-        <v>113.036512537915</v>
+        <v>166.3123269203039</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,28 +1354,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>64.59806438648032</v>
+        <v>95.04410708937579</v>
       </c>
       <c r="C34">
-        <v>2.016830755868722</v>
+        <v>2.9673935304794</v>
       </c>
       <c r="D34">
-        <v>16.08040577122461</v>
+        <v>23.65934370752994</v>
       </c>
       <c r="E34">
-        <v>20.96539768542889</v>
+        <v>30.84670603849071</v>
       </c>
       <c r="F34">
-        <v>7.658846977086974</v>
+        <v>11.26857714987112</v>
       </c>
       <c r="G34">
-        <v>2.880180744906647</v>
+        <v>4.237653399611103</v>
       </c>
       <c r="H34">
-        <v>0.7827003072166946</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="I34">
-        <v>114.9824266282129</v>
+        <v>169.1753796904068</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1383,28 +1383,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>45.30748327303237</v>
+        <v>66.66158395070165</v>
       </c>
       <c r="C35">
-        <v>1.841454168401877</v>
+        <v>2.709359310437713</v>
       </c>
       <c r="D35">
-        <v>13.20890474064879</v>
+        <v>19.43446090261388</v>
       </c>
       <c r="E35">
-        <v>15.72404826407167</v>
+        <v>23.13502952886803</v>
       </c>
       <c r="F35">
-        <v>4.467660736634067</v>
+        <v>6.573336670758156</v>
       </c>
       <c r="G35">
-        <v>4.800301241511079</v>
+        <v>7.062755666018505</v>
       </c>
       <c r="H35">
-        <v>0.7827003072166946</v>
+        <v>1.151598775048747</v>
       </c>
       <c r="I35">
-        <v>86.13255273151655</v>
+        <v>126.7281248044467</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1412,28 +1412,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>40.10410284111551</v>
+        <v>59.00577178829615</v>
       </c>
       <c r="C36">
-        <v>1.227636112267918</v>
+        <v>1.806239540291809</v>
       </c>
       <c r="D36">
-        <v>8.90165319478505</v>
+        <v>13.09713669523979</v>
       </c>
       <c r="E36">
-        <v>16.88879257992884</v>
+        <v>24.84873541989531</v>
       </c>
       <c r="F36">
-        <v>3.510304864498196</v>
+        <v>5.164764527024265</v>
       </c>
       <c r="G36">
-        <v>4.48028115874367</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="H36">
-        <v>1.095780430103372</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="I36">
-        <v>76.20855118144254</v>
+        <v>112.1267915440995</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1441,28 +1441,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>32.07693668699983</v>
+        <v>47.19528107434128</v>
       </c>
       <c r="C37">
-        <v>1.227636112267918</v>
+        <v>1.806239540291809</v>
       </c>
       <c r="D37">
-        <v>9.763103503957799</v>
+        <v>14.36460153671461</v>
       </c>
       <c r="E37">
-        <v>9.317954526857289</v>
+        <v>13.7096471282181</v>
       </c>
       <c r="F37">
-        <v>3.111406584441583</v>
+        <v>4.577859467135145</v>
       </c>
       <c r="G37">
-        <v>2.880180744906647</v>
+        <v>4.237653399611103</v>
       </c>
       <c r="H37">
-        <v>0.6261602457733555</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="I37">
-        <v>59.00337840520442</v>
+        <v>86.81256116635103</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1470,28 +1470,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>24.68432912214228</v>
+        <v>36.31842598994811</v>
       </c>
       <c r="C38">
-        <v>2.104519049602144</v>
+        <v>3.096410640500243</v>
       </c>
       <c r="D38">
-        <v>5.743002061151644</v>
+        <v>8.449765609832122</v>
       </c>
       <c r="E38">
-        <v>4.658977263428644</v>
+        <v>6.854823564109048</v>
       </c>
       <c r="F38">
-        <v>2.313610024328356</v>
+        <v>3.404049347356903</v>
       </c>
       <c r="G38">
-        <v>2.880180744906647</v>
+        <v>4.237653399611103</v>
       </c>
       <c r="H38">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I38">
-        <v>42.69769838844639</v>
+        <v>62.82176806137703</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1499,28 +1499,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>15.4197737189732</v>
+        <v>22.68734579834805</v>
       </c>
       <c r="C39">
-        <v>1.666077580935031</v>
+        <v>2.451325090396026</v>
       </c>
       <c r="D39">
-        <v>4.020101442806152</v>
+        <v>5.914835926882485</v>
       </c>
       <c r="E39">
-        <v>2.038302552750032</v>
+        <v>2.998985309297708</v>
       </c>
       <c r="F39">
-        <v>1.19669484016984</v>
+        <v>1.760715179667363</v>
       </c>
       <c r="G39">
-        <v>1.920120496604431</v>
+        <v>2.825102266407402</v>
       </c>
       <c r="H39">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I39">
-        <v>26.41761069368202</v>
+        <v>38.86862932600879</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1528,28 +1528,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>11.70760597181299</v>
+        <v>17.22557736541239</v>
       </c>
       <c r="C40">
-        <v>3.595220043070332</v>
+        <v>5.289701510854583</v>
       </c>
       <c r="D40">
-        <v>3.158651133633405</v>
+        <v>4.647371085407668</v>
       </c>
       <c r="E40">
-        <v>1.164744315857161</v>
+        <v>1.713705891027262</v>
       </c>
       <c r="F40">
-        <v>1.116915184158517</v>
+        <v>1.643334167689539</v>
       </c>
       <c r="G40">
-        <v>3.520220910441456</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="H40">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I40">
-        <v>24.57643768186054</v>
+        <v>36.15968368549118</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1557,28 +1557,28 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>8.376173378207666</v>
+        <v>12.32399031021375</v>
       </c>
       <c r="C41">
-        <v>2.718337105736104</v>
+        <v>3.999530410646148</v>
       </c>
       <c r="D41">
-        <v>2.010050721403076</v>
+        <v>2.957417963441242</v>
       </c>
       <c r="E41">
-        <v>0.2911860789642903</v>
+        <v>0.4284264727568155</v>
       </c>
       <c r="F41">
-        <v>1.994491400283066</v>
+        <v>2.934525299445606</v>
       </c>
       <c r="G41">
-        <v>3.520220910441456</v>
+        <v>5.179354155080236</v>
       </c>
       <c r="H41">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I41">
-        <v>19.06699965647899</v>
+        <v>28.05356436659355</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1586,25 +1586,25 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>6.186946245267027</v>
+        <v>9.10294738822607</v>
       </c>
       <c r="C42">
-        <v>1.578389287201609</v>
+        <v>2.322307980375183</v>
       </c>
       <c r="D42">
-        <v>3.158651133633405</v>
+        <v>4.647371085407668</v>
       </c>
       <c r="E42">
-        <v>0.5823721579285805</v>
+        <v>0.856852945513631</v>
       </c>
       <c r="F42">
-        <v>1.037135528147194</v>
+        <v>1.525953155711715</v>
       </c>
       <c r="G42">
-        <v>3.200200827674053</v>
+        <v>4.708503777345669</v>
       </c>
       <c r="I42">
-        <v>15.74369517985187</v>
+        <v>23.16393633257993</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1612,28 +1612,28 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>4.8543732078249</v>
+        <v>7.142312566146606</v>
       </c>
       <c r="C43">
-        <v>1.403012699734763</v>
+        <v>2.064273760333495</v>
       </c>
       <c r="D43">
-        <v>3.158651133633405</v>
+        <v>4.647371085407668</v>
       </c>
       <c r="E43">
-        <v>0.5823721579285805</v>
+        <v>0.856852945513631</v>
       </c>
       <c r="F43">
-        <v>1.276474496181162</v>
+        <v>1.878096191645188</v>
       </c>
       <c r="G43">
-        <v>4.48028115874367</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="H43">
-        <v>0.1565400614433389</v>
+        <v>0.2303197550097492</v>
       </c>
       <c r="I43">
-        <v>15.91170491548982</v>
+        <v>23.41113159234027</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1641,25 +1641,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>7.995438224652774</v>
+        <v>11.76380893247677</v>
       </c>
       <c r="C44">
-        <v>1.139947818534495</v>
+        <v>1.677222430270965</v>
       </c>
       <c r="D44">
-        <v>3.445801236690987</v>
+        <v>5.069859365899274</v>
       </c>
       <c r="E44">
-        <v>0.8735582368928712</v>
+        <v>1.285279418270446</v>
       </c>
       <c r="F44">
-        <v>3.510304864498196</v>
+        <v>5.164764527024265</v>
       </c>
       <c r="G44">
-        <v>4.48028115874367</v>
+        <v>6.591905288283937</v>
       </c>
       <c r="I44">
-        <v>21.44533154001299</v>
+        <v>31.55283996222565</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1667,28 +1667,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>19.00502974828179</v>
+        <v>27.96238710537135</v>
       </c>
       <c r="C45">
-        <v>0.9645712310676499</v>
+        <v>1.419188210229278</v>
       </c>
       <c r="D45">
-        <v>5.455851958094063</v>
+        <v>8.027277329340514</v>
       </c>
       <c r="E45">
-        <v>9.317954526857289</v>
+        <v>13.7096471282181</v>
       </c>
       <c r="F45">
-        <v>7.658846977086974</v>
+        <v>11.26857714987112</v>
       </c>
       <c r="G45">
-        <v>9.600602483022158</v>
+        <v>14.12551133203701</v>
       </c>
       <c r="H45">
-        <v>0.3130801228866777</v>
+        <v>0.4606395100194985</v>
       </c>
       <c r="I45">
-        <v>52.31593704729659</v>
+        <v>76.97322776508688</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1696,28 +1696,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>34.74208276188407</v>
+        <v>51.11655071850021</v>
       </c>
       <c r="C46">
-        <v>0.9645712310676499</v>
+        <v>1.419188210229278</v>
       </c>
       <c r="D46">
-        <v>11.77315422536087</v>
+        <v>17.32201950015585</v>
       </c>
       <c r="E46">
-        <v>28.53623573850044</v>
+        <v>41.98579433016792</v>
       </c>
       <c r="F46">
-        <v>9.733118033381361</v>
+        <v>14.32048346129455</v>
       </c>
       <c r="G46">
-        <v>18.88118488327691</v>
+        <v>27.78017228633945</v>
       </c>
       <c r="H46">
-        <v>0.6261602457733555</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="I46">
-        <v>105.2565071192446</v>
+        <v>154.8654875267263</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1725,28 +1725,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>47.43325454704724</v>
+        <v>69.78926330973319</v>
       </c>
       <c r="C47">
-        <v>1.490700993468186</v>
+        <v>2.193290870354339</v>
       </c>
       <c r="D47">
-        <v>14.93180535899428</v>
+        <v>21.96939058556351</v>
       </c>
       <c r="E47">
-        <v>22.71251415921463</v>
+        <v>33.41726487503161</v>
       </c>
       <c r="F47">
-        <v>10.13201631343797</v>
+        <v>14.90738852118368</v>
       </c>
       <c r="G47">
-        <v>15.36096397283545</v>
+        <v>22.60081813125921</v>
       </c>
       <c r="H47">
-        <v>1.095780430103372</v>
+        <v>1.612238285068245</v>
       </c>
       <c r="I47">
-        <v>113.1570357751011</v>
+        <v>166.4896545781938</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1754,28 +1754,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>52.35108361379793</v>
+        <v>77.02493943883596</v>
       </c>
       <c r="C48">
-        <v>2.192207343335567</v>
+        <v>3.225427750521087</v>
       </c>
       <c r="D48">
-        <v>17.22900618345494</v>
+        <v>25.34929682949636</v>
       </c>
       <c r="E48">
-        <v>11.64744315857161</v>
+        <v>17.13705891027262</v>
       </c>
       <c r="F48">
-        <v>12.52540599377765</v>
+        <v>18.4288188805184</v>
       </c>
       <c r="G48">
-        <v>16.00100413837026</v>
+        <v>23.54251888672835</v>
       </c>
       <c r="H48">
-        <v>1.40886055299005</v>
+        <v>2.072877795087743</v>
       </c>
       <c r="I48">
-        <v>113.355010984298</v>
+        <v>166.7809384914605</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1783,28 +1783,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>44.03836609451609</v>
+        <v>64.79431269157838</v>
       </c>
       <c r="C49">
-        <v>4.296726392937712</v>
+        <v>6.321838391021331</v>
       </c>
       <c r="D49">
-        <v>19.5262070079156</v>
+        <v>28.72920307342921</v>
       </c>
       <c r="E49">
-        <v>7.862024132035837</v>
+        <v>11.56751476443401</v>
       </c>
       <c r="F49">
-        <v>15.39747361018527</v>
+        <v>22.65453531172007</v>
       </c>
       <c r="G49">
-        <v>21.44134554541615</v>
+        <v>31.54697530821599</v>
       </c>
       <c r="H49">
-        <v>0.6261602457733555</v>
+        <v>0.921279020038997</v>
       </c>
       <c r="I49">
-        <v>113.18830302878</v>
+        <v>166.535658560438</v>
       </c>
     </row>
   </sheetData>
